--- a/data/output/FV2404_FV2310/UTILMD/55013.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55013.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20759" uniqueCount="1228">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20780" uniqueCount="1228">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3956,6 +3956,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1065" totalsRowShown="0">
+  <autoFilter ref="A1:U1065"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4245,7 +4275,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -51365,5 +51398,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55013.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25116" uniqueCount="2270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24788" uniqueCount="2270">
   <si>
     <t>#</t>
   </si>
@@ -11330,9 +11330,7 @@
         <v>732</v>
       </c>
       <c r="K74" s="2"/>
-      <c r="L74" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L74" s="7"/>
       <c r="M74" s="2" t="s">
         <v>35</v>
       </c>
@@ -11521,46 +11519,44 @@
       <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="5" t="s">
         <v>1298</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="L78" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M78" s="2" t="s">
+      <c r="L78" s="7"/>
+      <c r="M78" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="N78" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2" t="s">
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="V78" s="2" t="s">
+      <c r="V78" s="5" t="s">
         <v>864</v>
       </c>
     </row>
@@ -11727,46 +11723,44 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M82" s="2" t="s">
+      <c r="L82" s="7"/>
+      <c r="M82" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="N82" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2" t="s">
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="V82" s="2" t="s">
+      <c r="V82" s="5" t="s">
         <v>860</v>
       </c>
     </row>
@@ -11933,46 +11927,44 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="L86" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M86" s="2" t="s">
+      <c r="L86" s="7"/>
+      <c r="M86" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="N86" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2" t="s">
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="V86" s="2" t="s">
+      <c r="V86" s="5" t="s">
         <v>867</v>
       </c>
     </row>
@@ -12139,46 +12131,44 @@
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2" t="s">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="L90" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M90" s="2" t="s">
+      <c r="L90" s="7"/>
+      <c r="M90" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="N90" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2" t="s">
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="V90" s="2" t="s">
+      <c r="V90" s="5" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12345,46 +12335,44 @@
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M94" s="2" t="s">
+      <c r="L94" s="7"/>
+      <c r="M94" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="N94" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2" t="s">
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="V94" s="2" t="s">
+      <c r="V94" s="5" t="s">
         <v>871</v>
       </c>
     </row>
@@ -12551,44 +12539,42 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2" t="s">
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M98" s="2" t="s">
+      <c r="K98" s="5"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="N98" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2" t="s">
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V98" s="2"/>
+      <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="2" t="s">
@@ -12753,44 +12739,42 @@
       <c r="V101" s="2"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2" t="s">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M102" s="2" t="s">
+      <c r="K102" s="5"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="N102" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2" t="s">
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V102" s="2"/>
+      <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="2" t="s">
@@ -13206,9 +13190,7 @@
         <v>732</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L110" s="7"/>
       <c r="M110" s="2" t="s">
         <v>44</v>
       </c>
@@ -13478,9 +13460,7 @@
         <v>732</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L115" s="7"/>
       <c r="M115" s="2" t="s">
         <v>45</v>
       </c>
@@ -14610,9 +14590,7 @@
         <v>732</v>
       </c>
       <c r="K137" s="2"/>
-      <c r="L137" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L137" s="7"/>
       <c r="M137" s="2" t="s">
         <v>50</v>
       </c>
@@ -14666,9 +14644,7 @@
         <v>732</v>
       </c>
       <c r="K138" s="2"/>
-      <c r="L138" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L138" s="7"/>
       <c r="M138" s="2" t="s">
         <v>50</v>
       </c>
@@ -14722,9 +14698,7 @@
         <v>732</v>
       </c>
       <c r="K139" s="2"/>
-      <c r="L139" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L139" s="7"/>
       <c r="M139" s="2" t="s">
         <v>50</v>
       </c>
@@ -15190,9 +15164,7 @@
         <v>732</v>
       </c>
       <c r="K148" s="2"/>
-      <c r="L148" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L148" s="7"/>
       <c r="M148" s="2" t="s">
         <v>52</v>
       </c>
@@ -15443,46 +15415,44 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2" t="s">
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="K153" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="L153" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M153" s="2" t="s">
+      <c r="L153" s="7"/>
+      <c r="M153" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="N153" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2" t="s">
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="V153" s="2" t="s">
+      <c r="V153" s="5" t="s">
         <v>884</v>
       </c>
     </row>
@@ -15753,44 +15723,42 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2" t="s">
+      <c r="C159" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K159" s="2"/>
-      <c r="L159" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M159" s="2" t="s">
+      <c r="K159" s="5"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N159" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2" t="s">
+      <c r="N159" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V159" s="2"/>
+      <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="2" t="s">
@@ -15982,9 +15950,7 @@
         <v>732</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L163" s="7"/>
       <c r="M163" s="2" t="s">
         <v>56</v>
       </c>
@@ -16011,44 +15977,42 @@
       <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
+      <c r="C164" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K164" s="2"/>
-      <c r="L164" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M164" s="2" t="s">
+      <c r="K164" s="5"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N164" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2" t="s">
+      <c r="N164" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V164" s="2"/>
+      <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="2" t="s">
@@ -16441,46 +16405,44 @@
       <c r="V172" s="9"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2" t="s">
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M173" s="2" t="s">
+      <c r="L173" s="7"/>
+      <c r="M173" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="N173" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2" t="s">
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="V173" s="2" t="s">
+      <c r="V173" s="5" t="s">
         <v>885</v>
       </c>
     </row>
@@ -16967,44 +16929,42 @@
       <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2" t="s">
+      <c r="C183" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M183" s="2" t="s">
+      <c r="K183" s="5"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N183" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2" t="s">
+      <c r="N183" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V183" s="2"/>
+      <c r="V183" s="5"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="2" t="s">
@@ -17242,9 +17202,7 @@
         <v>765</v>
       </c>
       <c r="K188" s="2"/>
-      <c r="L188" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L188" s="7"/>
       <c r="M188" s="2" t="s">
         <v>62</v>
       </c>
@@ -17271,46 +17229,44 @@
       <c r="V188" s="2"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="5" t="s">
         <v>1401</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="2" t="s">
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M189" s="2" t="s">
+      <c r="L189" s="7"/>
+      <c r="M189" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="N189" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="2"/>
-      <c r="R189" s="2"/>
-      <c r="S189" s="2"/>
-      <c r="T189" s="2"/>
-      <c r="U189" s="2" t="s">
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+      <c r="U189" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="V189" s="2" t="s">
+      <c r="V189" s="5" t="s">
         <v>885</v>
       </c>
     </row>
@@ -17801,46 +17757,44 @@
       <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="5" t="s">
         <v>1411</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2" t="s">
+      <c r="C199" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="K199" s="2" t="s">
+      <c r="K199" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="L199" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M199" s="2" t="s">
+      <c r="L199" s="7"/>
+      <c r="M199" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N199" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2" t="s">
+      <c r="N199" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="V199" s="2" t="s">
+      <c r="V199" s="5" t="s">
         <v>887</v>
       </c>
     </row>
@@ -18003,44 +17957,42 @@
       <c r="V202" s="2"/>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2" t="s">
+      <c r="C203" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K203" s="2"/>
-      <c r="L203" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M203" s="2" t="s">
+      <c r="K203" s="5"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N203" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2" t="s">
+      <c r="N203" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
+      <c r="U203" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V203" s="2"/>
+      <c r="V203" s="5"/>
     </row>
     <row r="204" spans="1:22">
       <c r="A204" s="2" t="s">
@@ -18278,9 +18230,7 @@
         <v>732</v>
       </c>
       <c r="K208" s="2"/>
-      <c r="L208" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L208" s="7"/>
       <c r="M208" s="2" t="s">
         <v>65</v>
       </c>
@@ -18361,44 +18311,42 @@
       <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2" t="s">
+      <c r="C210" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M210" s="2" t="s">
+      <c r="K210" s="5"/>
+      <c r="L210" s="7"/>
+      <c r="M210" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N210" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2" t="s">
+      <c r="N210" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V210" s="2"/>
+      <c r="V210" s="5"/>
     </row>
     <row r="211" spans="1:22">
       <c r="A211" s="2" t="s">
@@ -18505,46 +18453,44 @@
       <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="5" t="s">
         <v>1425</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2" t="s">
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="K213" s="2" t="s">
+      <c r="K213" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="L213" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M213" s="2" t="s">
+      <c r="L213" s="7"/>
+      <c r="M213" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N213" s="2" t="s">
+      <c r="N213" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2" t="s">
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="V213" s="2" t="s">
+      <c r="V213" s="5" t="s">
         <v>860</v>
       </c>
     </row>
@@ -18815,46 +18761,44 @@
       </c>
     </row>
     <row r="219" spans="1:22">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2" t="s">
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="K219" s="2" t="s">
+      <c r="K219" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="L219" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M219" s="2" t="s">
+      <c r="L219" s="7"/>
+      <c r="M219" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N219" s="2" t="s">
+      <c r="N219" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
-      <c r="Q219" s="2"/>
-      <c r="R219" s="2"/>
-      <c r="S219" s="2"/>
-      <c r="T219" s="2"/>
-      <c r="U219" s="2" t="s">
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="V219" s="2" t="s">
+      <c r="V219" s="5" t="s">
         <v>888</v>
       </c>
     </row>
@@ -18990,9 +18934,7 @@
         <v>732</v>
       </c>
       <c r="K222" s="2"/>
-      <c r="L222" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L222" s="7"/>
       <c r="M222" s="2" t="s">
         <v>69</v>
       </c>
@@ -19164,9 +19106,7 @@
       <c r="K225" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="L225" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L225" s="7"/>
       <c r="M225" s="2" t="s">
         <v>69</v>
       </c>
@@ -19195,46 +19135,44 @@
       </c>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="5" t="s">
         <v>1438</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2" t="s">
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="K226" s="2" t="s">
+      <c r="K226" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="L226" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M226" s="2" t="s">
+      <c r="L226" s="7"/>
+      <c r="M226" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N226" s="2" t="s">
+      <c r="N226" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2" t="s">
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+      <c r="U226" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="V226" s="2" t="s">
+      <c r="V226" s="5" t="s">
         <v>891</v>
       </c>
     </row>
@@ -19459,44 +19397,42 @@
       <c r="V230" s="2"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2" t="s">
+      <c r="C231" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K231" s="2"/>
-      <c r="L231" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M231" s="2" t="s">
+      <c r="K231" s="5"/>
+      <c r="L231" s="7"/>
+      <c r="M231" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N231" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2" t="s">
+      <c r="N231" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
+      <c r="R231" s="5"/>
+      <c r="S231" s="5"/>
+      <c r="T231" s="5"/>
+      <c r="U231" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V231" s="2"/>
+      <c r="V231" s="5"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="2" t="s">
@@ -19661,44 +19597,42 @@
       <c r="V234" s="2"/>
     </row>
     <row r="235" spans="1:22">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2" t="s">
+      <c r="C235" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K235" s="2"/>
-      <c r="L235" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M235" s="2" t="s">
+      <c r="K235" s="5"/>
+      <c r="L235" s="7"/>
+      <c r="M235" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N235" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2" t="s">
+      <c r="N235" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V235" s="2"/>
+      <c r="V235" s="5"/>
     </row>
     <row r="236" spans="1:22">
       <c r="A236" s="2" t="s">
@@ -20210,9 +20144,7 @@
         <v>732</v>
       </c>
       <c r="K245" s="2"/>
-      <c r="L245" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L245" s="7"/>
       <c r="M245" s="2" t="s">
         <v>58</v>
       </c>
@@ -20367,44 +20299,42 @@
       <c r="V248" s="9"/>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2" t="s">
+      <c r="C249" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M249" s="2" t="s">
+      <c r="K249" s="5"/>
+      <c r="L249" s="7"/>
+      <c r="M249" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N249" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O249" s="2"/>
-      <c r="P249" s="2"/>
-      <c r="Q249" s="2"/>
-      <c r="R249" s="2"/>
-      <c r="S249" s="2"/>
-      <c r="T249" s="2"/>
-      <c r="U249" s="2" t="s">
+      <c r="N249" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+      <c r="R249" s="5"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="5"/>
+      <c r="U249" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V249" s="2"/>
+      <c r="V249" s="5"/>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="2" t="s">
@@ -20565,44 +20495,42 @@
       <c r="V252" s="2"/>
     </row>
     <row r="253" spans="1:22">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2" t="s">
+      <c r="C253" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K253" s="2"/>
-      <c r="L253" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M253" s="2" t="s">
+      <c r="K253" s="5"/>
+      <c r="L253" s="7"/>
+      <c r="M253" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N253" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-      <c r="Q253" s="2"/>
-      <c r="R253" s="2"/>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2"/>
-      <c r="U253" s="2" t="s">
+      <c r="N253" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
+      <c r="R253" s="5"/>
+      <c r="S253" s="5"/>
+      <c r="T253" s="5"/>
+      <c r="U253" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V253" s="2"/>
+      <c r="V253" s="5"/>
     </row>
     <row r="254" spans="1:22">
       <c r="A254" s="2" t="s">
@@ -20763,46 +20691,44 @@
       <c r="V256" s="2"/>
     </row>
     <row r="257" spans="1:22">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="5" t="s">
         <v>1469</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2" t="s">
+      <c r="C257" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="K257" s="2" t="s">
+      <c r="K257" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="L257" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M257" s="2" t="s">
+      <c r="L257" s="7"/>
+      <c r="M257" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N257" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="2"/>
-      <c r="S257" s="2"/>
-      <c r="T257" s="2"/>
-      <c r="U257" s="2" t="s">
+      <c r="N257" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="5"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="5"/>
+      <c r="U257" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="V257" s="2" t="s">
+      <c r="V257" s="5" t="s">
         <v>894</v>
       </c>
     </row>
@@ -21073,46 +20999,44 @@
       </c>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2" t="s">
+      <c r="C263" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="K263" s="2" t="s">
+      <c r="K263" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="L263" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M263" s="2" t="s">
+      <c r="L263" s="7"/>
+      <c r="M263" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N263" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2" t="s">
+      <c r="N263" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="V263" s="2" t="s">
+      <c r="V263" s="5" t="s">
         <v>895</v>
       </c>
     </row>
@@ -21379,44 +21303,42 @@
       <c r="V268" s="2"/>
     </row>
     <row r="269" spans="1:22">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2" t="s">
+      <c r="C269" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K269" s="2"/>
-      <c r="L269" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M269" s="2" t="s">
+      <c r="K269" s="5"/>
+      <c r="L269" s="7"/>
+      <c r="M269" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N269" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="2"/>
-      <c r="U269" s="2" t="s">
+      <c r="N269" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V269" s="2"/>
+      <c r="V269" s="5"/>
     </row>
     <row r="270" spans="1:22">
       <c r="A270" s="2" t="s">
@@ -21654,9 +21576,7 @@
         <v>732</v>
       </c>
       <c r="K274" s="2"/>
-      <c r="L274" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L274" s="7"/>
       <c r="M274" s="2" t="s">
         <v>77</v>
       </c>
@@ -21710,9 +21630,7 @@
         <v>732</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L275" s="7"/>
       <c r="M275" s="2" t="s">
         <v>77</v>
       </c>
@@ -21766,9 +21684,7 @@
         <v>732</v>
       </c>
       <c r="K276" s="2"/>
-      <c r="L276" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L276" s="7"/>
       <c r="M276" s="2" t="s">
         <v>77</v>
       </c>
@@ -21930,9 +21846,7 @@
         <v>779</v>
       </c>
       <c r="K279" s="2"/>
-      <c r="L279" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L279" s="7"/>
       <c r="M279" s="2" t="s">
         <v>78</v>
       </c>
@@ -21988,9 +21902,7 @@
       <c r="K280" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="L280" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L280" s="7"/>
       <c r="M280" s="2" t="s">
         <v>78</v>
       </c>
@@ -22019,44 +21931,42 @@
       </c>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="2" t="s">
+      <c r="C281" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K281" s="2"/>
-      <c r="L281" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M281" s="2" t="s">
+      <c r="K281" s="5"/>
+      <c r="L281" s="7"/>
+      <c r="M281" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N281" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O281" s="2"/>
-      <c r="P281" s="2"/>
-      <c r="Q281" s="2"/>
-      <c r="R281" s="2"/>
-      <c r="S281" s="2"/>
-      <c r="T281" s="2"/>
-      <c r="U281" s="2" t="s">
+      <c r="N281" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O281" s="5"/>
+      <c r="P281" s="5"/>
+      <c r="Q281" s="5"/>
+      <c r="R281" s="5"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="5"/>
+      <c r="U281" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V281" s="2"/>
+      <c r="V281" s="5"/>
     </row>
     <row r="282" spans="1:22">
       <c r="A282" s="2" t="s">
@@ -22294,9 +22204,7 @@
         <v>732</v>
       </c>
       <c r="K286" s="2"/>
-      <c r="L286" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L286" s="7"/>
       <c r="M286" s="2" t="s">
         <v>79</v>
       </c>
@@ -22350,9 +22258,7 @@
         <v>732</v>
       </c>
       <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L287" s="7"/>
       <c r="M287" s="2" t="s">
         <v>79</v>
       </c>
@@ -22379,44 +22285,42 @@
       <c r="V287" s="2"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="5" t="s">
         <v>1499</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
-      <c r="J288" s="2" t="s">
+      <c r="C288" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K288" s="2"/>
-      <c r="L288" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M288" s="2" t="s">
+      <c r="K288" s="5"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N288" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O288" s="2"/>
-      <c r="P288" s="2"/>
-      <c r="Q288" s="2"/>
-      <c r="R288" s="2"/>
-      <c r="S288" s="2"/>
-      <c r="T288" s="2"/>
-      <c r="U288" s="2" t="s">
+      <c r="N288" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O288" s="5"/>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="5"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="5"/>
+      <c r="U288" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V288" s="2"/>
+      <c r="V288" s="5"/>
     </row>
     <row r="289" spans="1:22">
       <c r="A289" s="2" t="s">
@@ -22608,9 +22512,7 @@
         <v>732</v>
       </c>
       <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L292" s="7"/>
       <c r="M292" s="2" t="s">
         <v>80</v>
       </c>
@@ -22637,44 +22539,42 @@
       <c r="V292" s="2"/>
     </row>
     <row r="293" spans="1:22">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="5" t="s">
         <v>1504</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2" t="s">
+      <c r="C293" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K293" s="2"/>
-      <c r="L293" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M293" s="2" t="s">
+      <c r="K293" s="5"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N293" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
-      <c r="U293" s="2" t="s">
+      <c r="N293" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V293" s="2"/>
+      <c r="V293" s="5"/>
     </row>
     <row r="294" spans="1:22">
       <c r="A294" s="2" t="s">
@@ -22808,9 +22708,7 @@
         <v>732</v>
       </c>
       <c r="K296" s="2"/>
-      <c r="L296" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L296" s="7"/>
       <c r="M296" s="2" t="s">
         <v>81</v>
       </c>
@@ -22972,9 +22870,7 @@
         <v>783</v>
       </c>
       <c r="K299" s="2"/>
-      <c r="L299" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L299" s="7"/>
       <c r="M299" s="2" t="s">
         <v>82</v>
       </c>
@@ -23001,46 +22897,44 @@
       <c r="V299" s="2"/>
     </row>
     <row r="300" spans="1:22">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="5" t="s">
         <v>1510</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-      <c r="J300" s="2" t="s">
+      <c r="C300" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="K300" s="2" t="s">
+      <c r="K300" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="L300" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M300" s="2" t="s">
+      <c r="L300" s="7"/>
+      <c r="M300" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N300" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O300" s="2"/>
-      <c r="P300" s="2"/>
-      <c r="Q300" s="2"/>
-      <c r="R300" s="2"/>
-      <c r="S300" s="2"/>
-      <c r="T300" s="2"/>
-      <c r="U300" s="2" t="s">
+      <c r="N300" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="5"/>
+      <c r="T300" s="5"/>
+      <c r="U300" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="V300" s="2" t="s">
+      <c r="V300" s="5" t="s">
         <v>899</v>
       </c>
     </row>
@@ -23280,9 +23174,7 @@
         <v>732</v>
       </c>
       <c r="K305" s="2"/>
-      <c r="L305" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L305" s="7"/>
       <c r="M305" s="2" t="s">
         <v>83</v>
       </c>
@@ -23444,9 +23336,7 @@
         <v>735</v>
       </c>
       <c r="K308" s="2"/>
-      <c r="L308" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L308" s="7"/>
       <c r="M308" s="2" t="s">
         <v>84</v>
       </c>
@@ -23500,9 +23390,7 @@
         <v>735</v>
       </c>
       <c r="K309" s="2"/>
-      <c r="L309" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L309" s="7"/>
       <c r="M309" s="2" t="s">
         <v>84</v>
       </c>
@@ -23556,9 +23444,7 @@
         <v>735</v>
       </c>
       <c r="K310" s="2"/>
-      <c r="L310" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L310" s="7"/>
       <c r="M310" s="2" t="s">
         <v>84</v>
       </c>
@@ -23585,44 +23471,42 @@
       <c r="V310" s="2"/>
     </row>
     <row r="311" spans="1:22">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="5" t="s">
         <v>1520</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2" t="s">
+      <c r="C311" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K311" s="2"/>
-      <c r="L311" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M311" s="2" t="s">
+      <c r="K311" s="5"/>
+      <c r="L311" s="7"/>
+      <c r="M311" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N311" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
-      <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
-      <c r="S311" s="2"/>
-      <c r="T311" s="2"/>
-      <c r="U311" s="2" t="s">
+      <c r="N311" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="5"/>
+      <c r="T311" s="5"/>
+      <c r="U311" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V311" s="2"/>
+      <c r="V311" s="5"/>
     </row>
     <row r="312" spans="1:22">
       <c r="A312" s="2" t="s">
@@ -23756,9 +23640,7 @@
         <v>732</v>
       </c>
       <c r="K314" s="2"/>
-      <c r="L314" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L314" s="7"/>
       <c r="M314" s="2" t="s">
         <v>85</v>
       </c>
@@ -23785,44 +23667,42 @@
       <c r="V314" s="2"/>
     </row>
     <row r="315" spans="1:22">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="5" t="s">
         <v>1524</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-      <c r="F315" s="2"/>
-      <c r="G315" s="2"/>
-      <c r="H315" s="2"/>
-      <c r="I315" s="2"/>
-      <c r="J315" s="2" t="s">
+      <c r="C315" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K315" s="2"/>
-      <c r="L315" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M315" s="2" t="s">
+      <c r="K315" s="5"/>
+      <c r="L315" s="7"/>
+      <c r="M315" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N315" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O315" s="2"/>
-      <c r="P315" s="2"/>
-      <c r="Q315" s="2"/>
-      <c r="R315" s="2"/>
-      <c r="S315" s="2"/>
-      <c r="T315" s="2"/>
-      <c r="U315" s="2" t="s">
+      <c r="N315" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O315" s="5"/>
+      <c r="P315" s="5"/>
+      <c r="Q315" s="5"/>
+      <c r="R315" s="5"/>
+      <c r="S315" s="5"/>
+      <c r="T315" s="5"/>
+      <c r="U315" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V315" s="2"/>
+      <c r="V315" s="5"/>
     </row>
     <row r="316" spans="1:22">
       <c r="A316" s="2" t="s">
@@ -24118,9 +23998,7 @@
         <v>732</v>
       </c>
       <c r="K321" s="2"/>
-      <c r="L321" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L321" s="7"/>
       <c r="M321" s="2" t="s">
         <v>87</v>
       </c>
@@ -24338,9 +24216,7 @@
       <c r="K325" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="L325" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L325" s="7"/>
       <c r="M325" s="2" t="s">
         <v>88</v>
       </c>
@@ -24558,9 +24434,7 @@
         <v>732</v>
       </c>
       <c r="K329" s="2"/>
-      <c r="L329" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L329" s="7"/>
       <c r="M329" s="2" t="s">
         <v>89</v>
       </c>
@@ -24776,9 +24650,7 @@
         <v>732</v>
       </c>
       <c r="K333" s="2"/>
-      <c r="L333" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L333" s="7"/>
       <c r="M333" s="2" t="s">
         <v>90</v>
       </c>
@@ -24805,44 +24677,42 @@
       <c r="V333" s="2"/>
     </row>
     <row r="334" spans="1:22">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-      <c r="J334" s="2" t="s">
+      <c r="C334" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
+      <c r="J334" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K334" s="2"/>
-      <c r="L334" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M334" s="2" t="s">
+      <c r="K334" s="5"/>
+      <c r="L334" s="7"/>
+      <c r="M334" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N334" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O334" s="2"/>
-      <c r="P334" s="2"/>
-      <c r="Q334" s="2"/>
-      <c r="R334" s="2"/>
-      <c r="S334" s="2"/>
-      <c r="T334" s="2"/>
-      <c r="U334" s="2" t="s">
+      <c r="N334" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O334" s="5"/>
+      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5"/>
+      <c r="U334" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V334" s="2"/>
+      <c r="V334" s="5"/>
     </row>
     <row r="335" spans="1:22">
       <c r="A335" s="2" t="s">
@@ -25034,9 +24904,7 @@
         <v>732</v>
       </c>
       <c r="K338" s="2"/>
-      <c r="L338" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L338" s="7"/>
       <c r="M338" s="2" t="s">
         <v>91</v>
       </c>
@@ -25063,44 +24931,42 @@
       <c r="V338" s="2"/>
     </row>
     <row r="339" spans="1:22">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="F339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
-      <c r="J339" s="2" t="s">
+      <c r="C339" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K339" s="2"/>
-      <c r="L339" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M339" s="2" t="s">
+      <c r="K339" s="5"/>
+      <c r="L339" s="7"/>
+      <c r="M339" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N339" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O339" s="2"/>
-      <c r="P339" s="2"/>
-      <c r="Q339" s="2"/>
-      <c r="R339" s="2"/>
-      <c r="S339" s="2"/>
-      <c r="T339" s="2"/>
-      <c r="U339" s="2" t="s">
+      <c r="N339" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O339" s="5"/>
+      <c r="P339" s="5"/>
+      <c r="Q339" s="5"/>
+      <c r="R339" s="5"/>
+      <c r="S339" s="5"/>
+      <c r="T339" s="5"/>
+      <c r="U339" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V339" s="2"/>
+      <c r="V339" s="5"/>
     </row>
     <row r="340" spans="1:22">
       <c r="A340" s="2" t="s">
@@ -25265,46 +25131,44 @@
       <c r="V342" s="2"/>
     </row>
     <row r="343" spans="1:22">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C343" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="F343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-      <c r="J343" s="2" t="s">
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="K343" s="2" t="s">
+      <c r="K343" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="L343" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M343" s="2" t="s">
+      <c r="L343" s="7"/>
+      <c r="M343" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N343" s="2" t="s">
+      <c r="N343" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O343" s="2"/>
-      <c r="P343" s="2"/>
-      <c r="Q343" s="2"/>
-      <c r="R343" s="2"/>
-      <c r="S343" s="2"/>
-      <c r="T343" s="2"/>
-      <c r="U343" s="2" t="s">
+      <c r="O343" s="5"/>
+      <c r="P343" s="5"/>
+      <c r="Q343" s="5"/>
+      <c r="R343" s="5"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="5"/>
+      <c r="U343" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="V343" s="2" t="s">
+      <c r="V343" s="5" t="s">
         <v>902</v>
       </c>
     </row>
@@ -25662,9 +25526,7 @@
       <c r="K350" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="L350" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>94</v>
       </c>
@@ -25957,44 +25819,42 @@
       <c r="V355" s="2"/>
     </row>
     <row r="356" spans="1:22">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2" t="s">
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
+      <c r="J356" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K356" s="2"/>
-      <c r="L356" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M356" s="2" t="s">
+      <c r="K356" s="5"/>
+      <c r="L356" s="7"/>
+      <c r="M356" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N356" s="2" t="s">
+      <c r="N356" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O356" s="2"/>
-      <c r="P356" s="2"/>
-      <c r="Q356" s="2"/>
-      <c r="R356" s="2"/>
-      <c r="S356" s="2"/>
-      <c r="T356" s="2"/>
-      <c r="U356" s="2" t="s">
+      <c r="O356" s="5"/>
+      <c r="P356" s="5"/>
+      <c r="Q356" s="5"/>
+      <c r="R356" s="5"/>
+      <c r="S356" s="5"/>
+      <c r="T356" s="5"/>
+      <c r="U356" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V356" s="2"/>
+      <c r="V356" s="5"/>
     </row>
     <row r="357" spans="1:22">
       <c r="A357" s="2" t="s">
@@ -26217,44 +26077,42 @@
       <c r="V360" s="2"/>
     </row>
     <row r="361" spans="1:22">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="5" t="s">
         <v>1570</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="F361" s="2"/>
-      <c r="G361" s="2"/>
-      <c r="H361" s="2"/>
-      <c r="I361" s="2"/>
-      <c r="J361" s="2" t="s">
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K361" s="2"/>
-      <c r="L361" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M361" s="2" t="s">
+      <c r="K361" s="5"/>
+      <c r="L361" s="7"/>
+      <c r="M361" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N361" s="2" t="s">
+      <c r="N361" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O361" s="2"/>
-      <c r="P361" s="2"/>
-      <c r="Q361" s="2"/>
-      <c r="R361" s="2"/>
-      <c r="S361" s="2"/>
-      <c r="T361" s="2"/>
-      <c r="U361" s="2" t="s">
+      <c r="O361" s="5"/>
+      <c r="P361" s="5"/>
+      <c r="Q361" s="5"/>
+      <c r="R361" s="5"/>
+      <c r="S361" s="5"/>
+      <c r="T361" s="5"/>
+      <c r="U361" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V361" s="2"/>
+      <c r="V361" s="5"/>
     </row>
     <row r="362" spans="1:22">
       <c r="A362" s="2" t="s">
@@ -26388,9 +26246,7 @@
         <v>732</v>
       </c>
       <c r="K364" s="2"/>
-      <c r="L364" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L364" s="7"/>
       <c r="M364" s="2" t="s">
         <v>97</v>
       </c>
@@ -26444,9 +26300,7 @@
         <v>732</v>
       </c>
       <c r="K365" s="2"/>
-      <c r="L365" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L365" s="7"/>
       <c r="M365" s="2" t="s">
         <v>97</v>
       </c>
@@ -26589,46 +26443,44 @@
       <c r="V367" s="2"/>
     </row>
     <row r="368" spans="1:22">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="5" t="s">
         <v>1577</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="2" t="s">
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="K368" s="2" t="s">
+      <c r="K368" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="L368" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M368" s="2" t="s">
+      <c r="L368" s="7"/>
+      <c r="M368" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N368" s="2" t="s">
+      <c r="N368" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-      <c r="Q368" s="2"/>
-      <c r="R368" s="2"/>
-      <c r="S368" s="2"/>
-      <c r="T368" s="2"/>
-      <c r="U368" s="2" t="s">
+      <c r="O368" s="5"/>
+      <c r="P368" s="5"/>
+      <c r="Q368" s="5"/>
+      <c r="R368" s="5"/>
+      <c r="S368" s="5"/>
+      <c r="T368" s="5"/>
+      <c r="U368" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="V368" s="2" t="s">
+      <c r="V368" s="5" t="s">
         <v>909</v>
       </c>
     </row>
@@ -26791,46 +26643,44 @@
       <c r="V371" s="2"/>
     </row>
     <row r="372" spans="1:22">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-      <c r="H372" s="2"/>
-      <c r="I372" s="2"/>
-      <c r="J372" s="2" t="s">
+      <c r="C372" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
+      <c r="J372" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="K372" s="2" t="s">
+      <c r="K372" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="L372" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M372" s="2" t="s">
+      <c r="L372" s="7"/>
+      <c r="M372" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N372" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
-      <c r="Q372" s="2"/>
-      <c r="R372" s="2"/>
-      <c r="S372" s="2"/>
-      <c r="T372" s="2"/>
-      <c r="U372" s="2" t="s">
+      <c r="N372" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O372" s="5"/>
+      <c r="P372" s="5"/>
+      <c r="Q372" s="5"/>
+      <c r="R372" s="5"/>
+      <c r="S372" s="5"/>
+      <c r="T372" s="5"/>
+      <c r="U372" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="V372" s="2" t="s">
+      <c r="V372" s="5" t="s">
         <v>909</v>
       </c>
     </row>
@@ -27375,44 +27225,42 @@
       <c r="V384" s="9"/>
     </row>
     <row r="385" spans="1:22">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="5" t="s">
         <v>1594</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C385" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-      <c r="H385" s="2"/>
-      <c r="I385" s="2"/>
-      <c r="J385" s="2" t="s">
+      <c r="D385" s="5"/>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
+      <c r="J385" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K385" s="2"/>
-      <c r="L385" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M385" s="2" t="s">
+      <c r="K385" s="5"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N385" s="2" t="s">
+      <c r="N385" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O385" s="2"/>
-      <c r="P385" s="2"/>
-      <c r="Q385" s="2"/>
-      <c r="R385" s="2"/>
-      <c r="S385" s="2"/>
-      <c r="T385" s="2"/>
-      <c r="U385" s="2" t="s">
+      <c r="O385" s="5"/>
+      <c r="P385" s="5"/>
+      <c r="Q385" s="5"/>
+      <c r="R385" s="5"/>
+      <c r="S385" s="5"/>
+      <c r="T385" s="5"/>
+      <c r="U385" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V385" s="2"/>
+      <c r="V385" s="5"/>
     </row>
     <row r="386" spans="1:22">
       <c r="A386" s="2" t="s">
@@ -27901,46 +27749,44 @@
       <c r="V394" s="2"/>
     </row>
     <row r="395" spans="1:22">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
-      <c r="I395" s="2"/>
-      <c r="J395" s="2" t="s">
+      <c r="C395" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="K395" s="2" t="s">
+      <c r="K395" s="5" t="s">
         <v>912</v>
       </c>
-      <c r="L395" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M395" s="2" t="s">
+      <c r="L395" s="7"/>
+      <c r="M395" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N395" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O395" s="2"/>
-      <c r="P395" s="2"/>
-      <c r="Q395" s="2"/>
-      <c r="R395" s="2"/>
-      <c r="S395" s="2"/>
-      <c r="T395" s="2"/>
-      <c r="U395" s="2" t="s">
+      <c r="N395" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O395" s="5"/>
+      <c r="P395" s="5"/>
+      <c r="Q395" s="5"/>
+      <c r="R395" s="5"/>
+      <c r="S395" s="5"/>
+      <c r="T395" s="5"/>
+      <c r="U395" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="V395" s="2" t="s">
+      <c r="V395" s="5" t="s">
         <v>912</v>
       </c>
     </row>
@@ -28180,9 +28026,7 @@
         <v>732</v>
       </c>
       <c r="K400" s="2"/>
-      <c r="L400" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L400" s="7"/>
       <c r="M400" s="2" t="s">
         <v>102</v>
       </c>
@@ -28236,9 +28080,7 @@
         <v>732</v>
       </c>
       <c r="K401" s="2"/>
-      <c r="L401" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L401" s="7"/>
       <c r="M401" s="2" t="s">
         <v>102</v>
       </c>
@@ -28292,9 +28134,7 @@
         <v>732</v>
       </c>
       <c r="K402" s="2"/>
-      <c r="L402" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L402" s="7"/>
       <c r="M402" s="2" t="s">
         <v>102</v>
       </c>
@@ -28321,46 +28161,44 @@
       <c r="V402" s="2"/>
     </row>
     <row r="403" spans="1:22">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-      <c r="H403" s="2"/>
-      <c r="I403" s="2"/>
-      <c r="J403" s="2" t="s">
+      <c r="C403" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="K403" s="2" t="s">
+      <c r="K403" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="L403" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M403" s="2" t="s">
+      <c r="L403" s="7"/>
+      <c r="M403" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N403" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O403" s="2"/>
-      <c r="P403" s="2"/>
-      <c r="Q403" s="2"/>
-      <c r="R403" s="2"/>
-      <c r="S403" s="2"/>
-      <c r="T403" s="2"/>
-      <c r="U403" s="2" t="s">
+      <c r="N403" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O403" s="5"/>
+      <c r="P403" s="5"/>
+      <c r="Q403" s="5"/>
+      <c r="R403" s="5"/>
+      <c r="S403" s="5"/>
+      <c r="T403" s="5"/>
+      <c r="U403" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="V403" s="2" t="s">
+      <c r="V403" s="5" t="s">
         <v>913</v>
       </c>
     </row>
@@ -28837,44 +28675,42 @@
       <c r="V414" s="9"/>
     </row>
     <row r="415" spans="1:22">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="5" t="s">
         <v>1624</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2" t="s">
+      <c r="C415" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K415" s="2"/>
-      <c r="L415" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M415" s="2" t="s">
+      <c r="K415" s="5"/>
+      <c r="L415" s="7"/>
+      <c r="M415" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N415" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O415" s="2"/>
-      <c r="P415" s="2"/>
-      <c r="Q415" s="2"/>
-      <c r="R415" s="2"/>
-      <c r="S415" s="2"/>
-      <c r="T415" s="2"/>
-      <c r="U415" s="2" t="s">
+      <c r="N415" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O415" s="5"/>
+      <c r="P415" s="5"/>
+      <c r="Q415" s="5"/>
+      <c r="R415" s="5"/>
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V415" s="2"/>
+      <c r="V415" s="5"/>
     </row>
     <row r="416" spans="1:22">
       <c r="A416" s="2" t="s">
@@ -29112,9 +28948,7 @@
         <v>802</v>
       </c>
       <c r="K420" s="2"/>
-      <c r="L420" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L420" s="7"/>
       <c r="M420" s="2" t="s">
         <v>62</v>
       </c>
@@ -29168,9 +29002,7 @@
         <v>803</v>
       </c>
       <c r="K421" s="2"/>
-      <c r="L421" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L421" s="7"/>
       <c r="M421" s="2" t="s">
         <v>62</v>
       </c>
@@ -29224,9 +29056,7 @@
         <v>804</v>
       </c>
       <c r="K422" s="2"/>
-      <c r="L422" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L422" s="7"/>
       <c r="M422" s="2" t="s">
         <v>62</v>
       </c>
@@ -29280,9 +29110,7 @@
         <v>805</v>
       </c>
       <c r="K423" s="2"/>
-      <c r="L423" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L423" s="7"/>
       <c r="M423" s="2" t="s">
         <v>62</v>
       </c>
@@ -29309,46 +29137,44 @@
       <c r="V423" s="2"/>
     </row>
     <row r="424" spans="1:22">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C424" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2" t="s">
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="K424" s="2" t="s">
+      <c r="K424" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="L424" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M424" s="2" t="s">
+      <c r="L424" s="7"/>
+      <c r="M424" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N424" s="2" t="s">
+      <c r="N424" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O424" s="2"/>
-      <c r="P424" s="2"/>
-      <c r="Q424" s="2"/>
-      <c r="R424" s="2"/>
-      <c r="S424" s="2"/>
-      <c r="T424" s="2"/>
-      <c r="U424" s="2" t="s">
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="V424" s="2" t="s">
+      <c r="V424" s="5" t="s">
         <v>896</v>
       </c>
     </row>
@@ -29835,44 +29661,42 @@
       <c r="V433" s="2"/>
     </row>
     <row r="434" spans="1:22">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C434" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-      <c r="H434" s="2"/>
-      <c r="I434" s="2"/>
-      <c r="J434" s="2" t="s">
+      <c r="C434" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="5"/>
+      <c r="J434" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K434" s="2"/>
-      <c r="L434" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M434" s="2" t="s">
+      <c r="K434" s="5"/>
+      <c r="L434" s="7"/>
+      <c r="M434" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N434" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O434" s="2"/>
-      <c r="P434" s="2"/>
-      <c r="Q434" s="2"/>
-      <c r="R434" s="2"/>
-      <c r="S434" s="2"/>
-      <c r="T434" s="2"/>
-      <c r="U434" s="2" t="s">
+      <c r="N434" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O434" s="5"/>
+      <c r="P434" s="5"/>
+      <c r="Q434" s="5"/>
+      <c r="R434" s="5"/>
+      <c r="S434" s="5"/>
+      <c r="T434" s="5"/>
+      <c r="U434" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V434" s="2"/>
+      <c r="V434" s="5"/>
     </row>
     <row r="435" spans="1:22">
       <c r="A435" s="2" t="s">
@@ -36007,44 +35831,42 @@
       <c r="V582" s="9"/>
     </row>
     <row r="583" spans="1:22">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="5" t="s">
         <v>1792</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C583" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D583" s="2"/>
-      <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-      <c r="I583" s="2"/>
-      <c r="J583" s="2" t="s">
+      <c r="C583" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="F583" s="5"/>
+      <c r="G583" s="5"/>
+      <c r="H583" s="5"/>
+      <c r="I583" s="5"/>
+      <c r="J583" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K583" s="2"/>
-      <c r="L583" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M583" s="2" t="s">
+      <c r="K583" s="5"/>
+      <c r="L583" s="7"/>
+      <c r="M583" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N583" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O583" s="2"/>
-      <c r="P583" s="2"/>
-      <c r="Q583" s="2"/>
-      <c r="R583" s="2"/>
-      <c r="S583" s="2"/>
-      <c r="T583" s="2"/>
-      <c r="U583" s="2" t="s">
+      <c r="N583" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O583" s="5"/>
+      <c r="P583" s="5"/>
+      <c r="Q583" s="5"/>
+      <c r="R583" s="5"/>
+      <c r="S583" s="5"/>
+      <c r="T583" s="5"/>
+      <c r="U583" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V583" s="2"/>
+      <c r="V583" s="5"/>
     </row>
     <row r="584" spans="1:22">
       <c r="A584" s="2" t="s">
@@ -40955,44 +40777,42 @@
       <c r="V705" s="9"/>
     </row>
     <row r="706" spans="1:22">
-      <c r="A706" s="2" t="s">
+      <c r="A706" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B706" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C706" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D706" s="2"/>
-      <c r="E706" s="2"/>
-      <c r="F706" s="2"/>
-      <c r="G706" s="2"/>
-      <c r="H706" s="2"/>
-      <c r="I706" s="2"/>
-      <c r="J706" s="2" t="s">
+      <c r="C706" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D706" s="5"/>
+      <c r="E706" s="5"/>
+      <c r="F706" s="5"/>
+      <c r="G706" s="5"/>
+      <c r="H706" s="5"/>
+      <c r="I706" s="5"/>
+      <c r="J706" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K706" s="2"/>
-      <c r="L706" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M706" s="2" t="s">
+      <c r="K706" s="5"/>
+      <c r="L706" s="7"/>
+      <c r="M706" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N706" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O706" s="2"/>
-      <c r="P706" s="2"/>
-      <c r="Q706" s="2"/>
-      <c r="R706" s="2"/>
-      <c r="S706" s="2"/>
-      <c r="T706" s="2"/>
-      <c r="U706" s="2" t="s">
+      <c r="N706" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O706" s="5"/>
+      <c r="P706" s="5"/>
+      <c r="Q706" s="5"/>
+      <c r="R706" s="5"/>
+      <c r="S706" s="5"/>
+      <c r="T706" s="5"/>
+      <c r="U706" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V706" s="2"/>
+      <c r="V706" s="5"/>
     </row>
     <row r="707" spans="1:22">
       <c r="A707" s="2" t="s">
@@ -43129,44 +42949,42 @@
       <c r="V756" s="2"/>
     </row>
     <row r="757" spans="1:22">
-      <c r="A757" s="2" t="s">
+      <c r="A757" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="B757" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C757" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D757" s="2"/>
-      <c r="E757" s="2"/>
-      <c r="F757" s="2"/>
-      <c r="G757" s="2"/>
-      <c r="H757" s="2"/>
-      <c r="I757" s="2"/>
-      <c r="J757" s="2" t="s">
+      <c r="C757" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D757" s="5"/>
+      <c r="E757" s="5"/>
+      <c r="F757" s="5"/>
+      <c r="G757" s="5"/>
+      <c r="H757" s="5"/>
+      <c r="I757" s="5"/>
+      <c r="J757" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K757" s="2"/>
-      <c r="L757" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M757" s="2" t="s">
+      <c r="K757" s="5"/>
+      <c r="L757" s="7"/>
+      <c r="M757" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N757" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O757" s="2"/>
-      <c r="P757" s="2"/>
-      <c r="Q757" s="2"/>
-      <c r="R757" s="2"/>
-      <c r="S757" s="2"/>
-      <c r="T757" s="2"/>
-      <c r="U757" s="2" t="s">
+      <c r="N757" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O757" s="5"/>
+      <c r="P757" s="5"/>
+      <c r="Q757" s="5"/>
+      <c r="R757" s="5"/>
+      <c r="S757" s="5"/>
+      <c r="T757" s="5"/>
+      <c r="U757" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V757" s="2"/>
+      <c r="V757" s="5"/>
     </row>
     <row r="758" spans="1:22">
       <c r="A758" s="2" t="s">
@@ -43404,9 +43222,7 @@
         <v>732</v>
       </c>
       <c r="K762" s="2"/>
-      <c r="L762" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L762" s="7"/>
       <c r="M762" s="2" t="s">
         <v>137</v>
       </c>
@@ -43460,9 +43276,7 @@
         <v>732</v>
       </c>
       <c r="K763" s="2"/>
-      <c r="L763" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L763" s="7"/>
       <c r="M763" s="2" t="s">
         <v>137</v>
       </c>
@@ -43516,9 +43330,7 @@
         <v>732</v>
       </c>
       <c r="K764" s="2"/>
-      <c r="L764" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L764" s="7"/>
       <c r="M764" s="2" t="s">
         <v>137</v>
       </c>
@@ -43545,46 +43357,44 @@
       <c r="V764" s="2"/>
     </row>
     <row r="765" spans="1:22">
-      <c r="A765" s="2" t="s">
+      <c r="A765" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="B765" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C765" s="2" t="s">
+      <c r="C765" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D765" s="2"/>
-      <c r="E765" s="2"/>
-      <c r="F765" s="2"/>
-      <c r="G765" s="2"/>
-      <c r="H765" s="2"/>
-      <c r="I765" s="2"/>
-      <c r="J765" s="2" t="s">
+      <c r="D765" s="5"/>
+      <c r="E765" s="5"/>
+      <c r="F765" s="5"/>
+      <c r="G765" s="5"/>
+      <c r="H765" s="5"/>
+      <c r="I765" s="5"/>
+      <c r="J765" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="K765" s="2" t="s">
+      <c r="K765" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="L765" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M765" s="2" t="s">
+      <c r="L765" s="7"/>
+      <c r="M765" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N765" s="2" t="s">
+      <c r="N765" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O765" s="2"/>
-      <c r="P765" s="2"/>
-      <c r="Q765" s="2"/>
-      <c r="R765" s="2"/>
-      <c r="S765" s="2"/>
-      <c r="T765" s="2"/>
-      <c r="U765" s="2" t="s">
+      <c r="O765" s="5"/>
+      <c r="P765" s="5"/>
+      <c r="Q765" s="5"/>
+      <c r="R765" s="5"/>
+      <c r="S765" s="5"/>
+      <c r="T765" s="5"/>
+      <c r="U765" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="V765" s="2" t="s">
+      <c r="V765" s="5" t="s">
         <v>933</v>
       </c>
     </row>
@@ -44017,44 +43827,42 @@
       <c r="V773" s="2"/>
     </row>
     <row r="774" spans="1:22">
-      <c r="A774" s="2" t="s">
+      <c r="A774" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="B774" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C774" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D774" s="2"/>
-      <c r="E774" s="2"/>
-      <c r="F774" s="2"/>
-      <c r="G774" s="2"/>
-      <c r="H774" s="2"/>
-      <c r="I774" s="2"/>
-      <c r="J774" s="2" t="s">
+      <c r="C774" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D774" s="5"/>
+      <c r="E774" s="5"/>
+      <c r="F774" s="5"/>
+      <c r="G774" s="5"/>
+      <c r="H774" s="5"/>
+      <c r="I774" s="5"/>
+      <c r="J774" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K774" s="2"/>
-      <c r="L774" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M774" s="2" t="s">
+      <c r="K774" s="5"/>
+      <c r="L774" s="7"/>
+      <c r="M774" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N774" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O774" s="2"/>
-      <c r="P774" s="2"/>
-      <c r="Q774" s="2"/>
-      <c r="R774" s="2"/>
-      <c r="S774" s="2"/>
-      <c r="T774" s="2"/>
-      <c r="U774" s="2" t="s">
+      <c r="N774" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O774" s="5"/>
+      <c r="P774" s="5"/>
+      <c r="Q774" s="5"/>
+      <c r="R774" s="5"/>
+      <c r="S774" s="5"/>
+      <c r="T774" s="5"/>
+      <c r="U774" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V774" s="2"/>
+      <c r="V774" s="5"/>
     </row>
     <row r="775" spans="1:22">
       <c r="A775" s="2" t="s">
@@ -44292,9 +44100,7 @@
         <v>732</v>
       </c>
       <c r="K779" s="2"/>
-      <c r="L779" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L779" s="7"/>
       <c r="M779" s="2" t="s">
         <v>141</v>
       </c>
@@ -44348,9 +44154,7 @@
         <v>732</v>
       </c>
       <c r="K780" s="2"/>
-      <c r="L780" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L780" s="7"/>
       <c r="M780" s="2" t="s">
         <v>141</v>
       </c>
@@ -44404,9 +44208,7 @@
         <v>732</v>
       </c>
       <c r="K781" s="2"/>
-      <c r="L781" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L781" s="7"/>
       <c r="M781" s="2" t="s">
         <v>141</v>
       </c>
@@ -44460,9 +44262,7 @@
         <v>732</v>
       </c>
       <c r="K782" s="2"/>
-      <c r="L782" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L782" s="7"/>
       <c r="M782" s="2" t="s">
         <v>141</v>
       </c>
@@ -44516,9 +44316,7 @@
         <v>732</v>
       </c>
       <c r="K783" s="2"/>
-      <c r="L783" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L783" s="7"/>
       <c r="M783" s="2" t="s">
         <v>141</v>
       </c>
@@ -44572,9 +44370,7 @@
         <v>732</v>
       </c>
       <c r="K784" s="2"/>
-      <c r="L784" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L784" s="7"/>
       <c r="M784" s="2" t="s">
         <v>141</v>
       </c>
@@ -44686,9 +44482,7 @@
         <v>826</v>
       </c>
       <c r="K786" s="2"/>
-      <c r="L786" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L786" s="7"/>
       <c r="M786" s="2" t="s">
         <v>141</v>
       </c>
@@ -44742,9 +44536,7 @@
         <v>826</v>
       </c>
       <c r="K787" s="2"/>
-      <c r="L787" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L787" s="7"/>
       <c r="M787" s="2" t="s">
         <v>141</v>
       </c>
@@ -44798,9 +44590,7 @@
         <v>827</v>
       </c>
       <c r="K788" s="2"/>
-      <c r="L788" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L788" s="7"/>
       <c r="M788" s="2" t="s">
         <v>141</v>
       </c>
@@ -44856,9 +44646,7 @@
       <c r="K789" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="L789" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L789" s="7"/>
       <c r="M789" s="2" t="s">
         <v>141</v>
       </c>
@@ -45180,9 +44968,7 @@
         <v>732</v>
       </c>
       <c r="K795" s="2"/>
-      <c r="L795" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L795" s="7"/>
       <c r="M795" s="2" t="s">
         <v>143</v>
       </c>
@@ -45236,9 +45022,7 @@
         <v>732</v>
       </c>
       <c r="K796" s="2"/>
-      <c r="L796" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L796" s="7"/>
       <c r="M796" s="2" t="s">
         <v>143</v>
       </c>
@@ -45396,9 +45180,7 @@
         <v>732</v>
       </c>
       <c r="K799" s="2"/>
-      <c r="L799" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L799" s="7"/>
       <c r="M799" s="2" t="s">
         <v>144</v>
       </c>
@@ -45614,9 +45396,7 @@
         <v>732</v>
       </c>
       <c r="K803" s="2"/>
-      <c r="L803" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L803" s="7"/>
       <c r="M803" s="2" t="s">
         <v>145</v>
       </c>
@@ -45643,46 +45423,44 @@
       <c r="V803" s="2"/>
     </row>
     <row r="804" spans="1:22">
-      <c r="A804" s="2" t="s">
+      <c r="A804" s="5" t="s">
         <v>2010</v>
       </c>
-      <c r="B804" s="2" t="s">
+      <c r="B804" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C804" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D804" s="2"/>
-      <c r="E804" s="2"/>
-      <c r="F804" s="2"/>
-      <c r="G804" s="2"/>
-      <c r="H804" s="2"/>
-      <c r="I804" s="2"/>
-      <c r="J804" s="2" t="s">
+      <c r="C804" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D804" s="5"/>
+      <c r="E804" s="5"/>
+      <c r="F804" s="5"/>
+      <c r="G804" s="5"/>
+      <c r="H804" s="5"/>
+      <c r="I804" s="5"/>
+      <c r="J804" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="K804" s="2" t="s">
+      <c r="K804" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="L804" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M804" s="2" t="s">
+      <c r="L804" s="7"/>
+      <c r="M804" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N804" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O804" s="2"/>
-      <c r="P804" s="2"/>
-      <c r="Q804" s="2"/>
-      <c r="R804" s="2"/>
-      <c r="S804" s="2"/>
-      <c r="T804" s="2"/>
-      <c r="U804" s="2" t="s">
+      <c r="N804" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O804" s="5"/>
+      <c r="P804" s="5"/>
+      <c r="Q804" s="5"/>
+      <c r="R804" s="5"/>
+      <c r="S804" s="5"/>
+      <c r="T804" s="5"/>
+      <c r="U804" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="V804" s="2" t="s">
+      <c r="V804" s="5" t="s">
         <v>937</v>
       </c>
     </row>
@@ -45922,9 +45700,7 @@
         <v>732</v>
       </c>
       <c r="K809" s="2"/>
-      <c r="L809" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L809" s="7"/>
       <c r="M809" s="2" t="s">
         <v>146</v>
       </c>
@@ -45951,46 +45727,44 @@
       <c r="V809" s="2"/>
     </row>
     <row r="810" spans="1:22">
-      <c r="A810" s="2" t="s">
+      <c r="A810" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="B810" s="2" t="s">
+      <c r="B810" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C810" s="2" t="s">
+      <c r="C810" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D810" s="2"/>
-      <c r="E810" s="2"/>
-      <c r="F810" s="2"/>
-      <c r="G810" s="2"/>
-      <c r="H810" s="2"/>
-      <c r="I810" s="2"/>
-      <c r="J810" s="2" t="s">
+      <c r="D810" s="5"/>
+      <c r="E810" s="5"/>
+      <c r="F810" s="5"/>
+      <c r="G810" s="5"/>
+      <c r="H810" s="5"/>
+      <c r="I810" s="5"/>
+      <c r="J810" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="K810" s="2" t="s">
+      <c r="K810" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="L810" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M810" s="2" t="s">
+      <c r="L810" s="7"/>
+      <c r="M810" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N810" s="2" t="s">
+      <c r="N810" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O810" s="2"/>
-      <c r="P810" s="2"/>
-      <c r="Q810" s="2"/>
-      <c r="R810" s="2"/>
-      <c r="S810" s="2"/>
-      <c r="T810" s="2"/>
-      <c r="U810" s="2" t="s">
+      <c r="O810" s="5"/>
+      <c r="P810" s="5"/>
+      <c r="Q810" s="5"/>
+      <c r="R810" s="5"/>
+      <c r="S810" s="5"/>
+      <c r="T810" s="5"/>
+      <c r="U810" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="V810" s="2" t="s">
+      <c r="V810" s="5" t="s">
         <v>938</v>
       </c>
     </row>
@@ -46236,9 +46010,7 @@
       <c r="K815" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="L815" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L815" s="7"/>
       <c r="M815" s="2" t="s">
         <v>148</v>
       </c>
@@ -46865,46 +46637,44 @@
       <c r="V826" s="2"/>
     </row>
     <row r="827" spans="1:22">
-      <c r="A827" s="2" t="s">
+      <c r="A827" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="B827" s="2" t="s">
+      <c r="B827" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C827" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D827" s="2"/>
-      <c r="E827" s="2"/>
-      <c r="F827" s="2"/>
-      <c r="G827" s="2"/>
-      <c r="H827" s="2"/>
-      <c r="I827" s="2"/>
-      <c r="J827" s="2" t="s">
+      <c r="C827" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D827" s="5"/>
+      <c r="E827" s="5"/>
+      <c r="F827" s="5"/>
+      <c r="G827" s="5"/>
+      <c r="H827" s="5"/>
+      <c r="I827" s="5"/>
+      <c r="J827" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="K827" s="2" t="s">
+      <c r="K827" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="L827" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M827" s="2" t="s">
+      <c r="L827" s="7"/>
+      <c r="M827" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N827" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O827" s="2"/>
-      <c r="P827" s="2"/>
-      <c r="Q827" s="2"/>
-      <c r="R827" s="2"/>
-      <c r="S827" s="2"/>
-      <c r="T827" s="2"/>
-      <c r="U827" s="2" t="s">
+      <c r="N827" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O827" s="5"/>
+      <c r="P827" s="5"/>
+      <c r="Q827" s="5"/>
+      <c r="R827" s="5"/>
+      <c r="S827" s="5"/>
+      <c r="T827" s="5"/>
+      <c r="U827" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="V827" s="2" t="s">
+      <c r="V827" s="5" t="s">
         <v>943</v>
       </c>
     </row>
@@ -47144,9 +46914,7 @@
         <v>732</v>
       </c>
       <c r="K832" s="2"/>
-      <c r="L832" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L832" s="7"/>
       <c r="M832" s="2" t="s">
         <v>102</v>
       </c>
@@ -47200,9 +46968,7 @@
         <v>732</v>
       </c>
       <c r="K833" s="2"/>
-      <c r="L833" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L833" s="7"/>
       <c r="M833" s="2" t="s">
         <v>102</v>
       </c>
@@ -47256,9 +47022,7 @@
         <v>732</v>
       </c>
       <c r="K834" s="2"/>
-      <c r="L834" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L834" s="7"/>
       <c r="M834" s="2" t="s">
         <v>102</v>
       </c>
@@ -47801,46 +47565,44 @@
       <c r="V846" s="9"/>
     </row>
     <row r="847" spans="1:22">
-      <c r="A847" s="2" t="s">
+      <c r="A847" s="5" t="s">
         <v>2053</v>
       </c>
-      <c r="B847" s="2" t="s">
+      <c r="B847" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C847" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D847" s="2"/>
-      <c r="E847" s="2"/>
-      <c r="F847" s="2"/>
-      <c r="G847" s="2"/>
-      <c r="H847" s="2"/>
-      <c r="I847" s="2"/>
-      <c r="J847" s="2" t="s">
+      <c r="C847" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D847" s="5"/>
+      <c r="E847" s="5"/>
+      <c r="F847" s="5"/>
+      <c r="G847" s="5"/>
+      <c r="H847" s="5"/>
+      <c r="I847" s="5"/>
+      <c r="J847" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="K847" s="2" t="s">
+      <c r="K847" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="L847" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M847" s="2" t="s">
+      <c r="L847" s="7"/>
+      <c r="M847" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="N847" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O847" s="2"/>
-      <c r="P847" s="2"/>
-      <c r="Q847" s="2"/>
-      <c r="R847" s="2"/>
-      <c r="S847" s="2"/>
-      <c r="T847" s="2"/>
-      <c r="U847" s="2" t="s">
+      <c r="N847" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O847" s="5"/>
+      <c r="P847" s="5"/>
+      <c r="Q847" s="5"/>
+      <c r="R847" s="5"/>
+      <c r="S847" s="5"/>
+      <c r="T847" s="5"/>
+      <c r="U847" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="V847" s="2" t="s">
+      <c r="V847" s="5" t="s">
         <v>945</v>
       </c>
     </row>
@@ -48161,46 +47923,44 @@
       <c r="V853" s="2"/>
     </row>
     <row r="854" spans="1:22">
-      <c r="A854" s="2" t="s">
+      <c r="A854" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="B854" s="2" t="s">
+      <c r="B854" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C854" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D854" s="2"/>
-      <c r="E854" s="2"/>
-      <c r="F854" s="2"/>
-      <c r="G854" s="2"/>
-      <c r="H854" s="2"/>
-      <c r="I854" s="2"/>
-      <c r="J854" s="2" t="s">
+      <c r="C854" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D854" s="5"/>
+      <c r="E854" s="5"/>
+      <c r="F854" s="5"/>
+      <c r="G854" s="5"/>
+      <c r="H854" s="5"/>
+      <c r="I854" s="5"/>
+      <c r="J854" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="K854" s="2" t="s">
+      <c r="K854" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="L854" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M854" s="2" t="s">
+      <c r="L854" s="7"/>
+      <c r="M854" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N854" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O854" s="2"/>
-      <c r="P854" s="2"/>
-      <c r="Q854" s="2"/>
-      <c r="R854" s="2"/>
-      <c r="S854" s="2"/>
-      <c r="T854" s="2"/>
-      <c r="U854" s="2" t="s">
+      <c r="N854" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O854" s="5"/>
+      <c r="P854" s="5"/>
+      <c r="Q854" s="5"/>
+      <c r="R854" s="5"/>
+      <c r="S854" s="5"/>
+      <c r="T854" s="5"/>
+      <c r="U854" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="V854" s="2" t="s">
+      <c r="V854" s="5" t="s">
         <v>946</v>
       </c>
     </row>
@@ -48561,46 +48321,44 @@
       <c r="V862" s="2"/>
     </row>
     <row r="863" spans="1:22">
-      <c r="A863" s="2" t="s">
+      <c r="A863" s="5" t="s">
         <v>2069</v>
       </c>
-      <c r="B863" s="2" t="s">
+      <c r="B863" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C863" s="2" t="s">
+      <c r="C863" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D863" s="2"/>
-      <c r="E863" s="2"/>
-      <c r="F863" s="2"/>
-      <c r="G863" s="2"/>
-      <c r="H863" s="2"/>
-      <c r="I863" s="2"/>
-      <c r="J863" s="2" t="s">
+      <c r="D863" s="5"/>
+      <c r="E863" s="5"/>
+      <c r="F863" s="5"/>
+      <c r="G863" s="5"/>
+      <c r="H863" s="5"/>
+      <c r="I863" s="5"/>
+      <c r="J863" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="K863" s="2" t="s">
+      <c r="K863" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="L863" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M863" s="2" t="s">
+      <c r="L863" s="7"/>
+      <c r="M863" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N863" s="2" t="s">
+      <c r="N863" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O863" s="2"/>
-      <c r="P863" s="2"/>
-      <c r="Q863" s="2"/>
-      <c r="R863" s="2"/>
-      <c r="S863" s="2"/>
-      <c r="T863" s="2"/>
-      <c r="U863" s="2" t="s">
+      <c r="O863" s="5"/>
+      <c r="P863" s="5"/>
+      <c r="Q863" s="5"/>
+      <c r="R863" s="5"/>
+      <c r="S863" s="5"/>
+      <c r="T863" s="5"/>
+      <c r="U863" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="V863" s="2" t="s">
+      <c r="V863" s="5" t="s">
         <v>948</v>
       </c>
     </row>
@@ -48867,44 +48625,42 @@
       <c r="V868" s="2"/>
     </row>
     <row r="869" spans="1:22">
-      <c r="A869" s="2" t="s">
+      <c r="A869" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="B869" s="2" t="s">
+      <c r="B869" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C869" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D869" s="2"/>
-      <c r="E869" s="2"/>
-      <c r="F869" s="2"/>
-      <c r="G869" s="2"/>
-      <c r="H869" s="2"/>
-      <c r="I869" s="2"/>
-      <c r="J869" s="2" t="s">
+      <c r="C869" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D869" s="5"/>
+      <c r="E869" s="5"/>
+      <c r="F869" s="5"/>
+      <c r="G869" s="5"/>
+      <c r="H869" s="5"/>
+      <c r="I869" s="5"/>
+      <c r="J869" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K869" s="2"/>
-      <c r="L869" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M869" s="2" t="s">
+      <c r="K869" s="5"/>
+      <c r="L869" s="7"/>
+      <c r="M869" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N869" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O869" s="2"/>
-      <c r="P869" s="2"/>
-      <c r="Q869" s="2"/>
-      <c r="R869" s="2"/>
-      <c r="S869" s="2"/>
-      <c r="T869" s="2"/>
-      <c r="U869" s="2" t="s">
+      <c r="N869" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O869" s="5"/>
+      <c r="P869" s="5"/>
+      <c r="Q869" s="5"/>
+      <c r="R869" s="5"/>
+      <c r="S869" s="5"/>
+      <c r="T869" s="5"/>
+      <c r="U869" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V869" s="2"/>
+      <c r="V869" s="5"/>
     </row>
     <row r="870" spans="1:22">
       <c r="A870" s="2" t="s">
@@ -49304,9 +49060,7 @@
         <v>732</v>
       </c>
       <c r="K877" s="2"/>
-      <c r="L877" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L877" s="7"/>
       <c r="M877" s="2" t="s">
         <v>157</v>
       </c>
@@ -49360,9 +49114,7 @@
         <v>732</v>
       </c>
       <c r="K878" s="2"/>
-      <c r="L878" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L878" s="7"/>
       <c r="M878" s="2" t="s">
         <v>157</v>
       </c>
@@ -49416,9 +49168,7 @@
         <v>732</v>
       </c>
       <c r="K879" s="2"/>
-      <c r="L879" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L879" s="7"/>
       <c r="M879" s="2" t="s">
         <v>157</v>
       </c>
@@ -49503,46 +49253,44 @@
       </c>
     </row>
     <row r="881" spans="1:22">
-      <c r="A881" s="2" t="s">
+      <c r="A881" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="B881" s="2" t="s">
+      <c r="B881" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C881" s="2" t="s">
+      <c r="C881" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D881" s="2"/>
-      <c r="E881" s="2"/>
-      <c r="F881" s="2"/>
-      <c r="G881" s="2"/>
-      <c r="H881" s="2"/>
-      <c r="I881" s="2"/>
-      <c r="J881" s="2" t="s">
+      <c r="D881" s="5"/>
+      <c r="E881" s="5"/>
+      <c r="F881" s="5"/>
+      <c r="G881" s="5"/>
+      <c r="H881" s="5"/>
+      <c r="I881" s="5"/>
+      <c r="J881" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="K881" s="2" t="s">
+      <c r="K881" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="L881" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M881" s="2" t="s">
+      <c r="L881" s="7"/>
+      <c r="M881" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N881" s="2" t="s">
+      <c r="N881" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O881" s="2"/>
-      <c r="P881" s="2"/>
-      <c r="Q881" s="2"/>
-      <c r="R881" s="2"/>
-      <c r="S881" s="2"/>
-      <c r="T881" s="2"/>
-      <c r="U881" s="2" t="s">
+      <c r="O881" s="5"/>
+      <c r="P881" s="5"/>
+      <c r="Q881" s="5"/>
+      <c r="R881" s="5"/>
+      <c r="S881" s="5"/>
+      <c r="T881" s="5"/>
+      <c r="U881" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="V881" s="2" t="s">
+      <c r="V881" s="5" t="s">
         <v>951</v>
       </c>
     </row>
@@ -49809,44 +49557,42 @@
       <c r="V886" s="2"/>
     </row>
     <row r="887" spans="1:22">
-      <c r="A887" s="2" t="s">
+      <c r="A887" s="5" t="s">
         <v>2093</v>
       </c>
-      <c r="B887" s="2" t="s">
+      <c r="B887" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C887" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D887" s="2"/>
-      <c r="E887" s="2"/>
-      <c r="F887" s="2"/>
-      <c r="G887" s="2"/>
-      <c r="H887" s="2"/>
-      <c r="I887" s="2"/>
-      <c r="J887" s="2" t="s">
+      <c r="C887" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D887" s="5"/>
+      <c r="E887" s="5"/>
+      <c r="F887" s="5"/>
+      <c r="G887" s="5"/>
+      <c r="H887" s="5"/>
+      <c r="I887" s="5"/>
+      <c r="J887" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K887" s="2"/>
-      <c r="L887" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M887" s="2" t="s">
+      <c r="K887" s="5"/>
+      <c r="L887" s="7"/>
+      <c r="M887" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N887" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O887" s="2"/>
-      <c r="P887" s="2"/>
-      <c r="Q887" s="2"/>
-      <c r="R887" s="2"/>
-      <c r="S887" s="2"/>
-      <c r="T887" s="2"/>
-      <c r="U887" s="2" t="s">
+      <c r="N887" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O887" s="5"/>
+      <c r="P887" s="5"/>
+      <c r="Q887" s="5"/>
+      <c r="R887" s="5"/>
+      <c r="S887" s="5"/>
+      <c r="T887" s="5"/>
+      <c r="U887" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V887" s="2"/>
+      <c r="V887" s="5"/>
     </row>
     <row r="888" spans="1:22">
       <c r="A888" s="2" t="s">
@@ -50242,9 +49988,7 @@
         <v>732</v>
       </c>
       <c r="K895" s="2"/>
-      <c r="L895" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L895" s="7"/>
       <c r="M895" s="2" t="s">
         <v>160</v>
       </c>
@@ -50298,9 +50042,7 @@
         <v>732</v>
       </c>
       <c r="K896" s="2"/>
-      <c r="L896" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L896" s="7"/>
       <c r="M896" s="2" t="s">
         <v>160</v>
       </c>
@@ -50354,9 +50096,7 @@
         <v>732</v>
       </c>
       <c r="K897" s="2"/>
-      <c r="L897" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L897" s="7"/>
       <c r="M897" s="2" t="s">
         <v>160</v>
       </c>
@@ -50410,9 +50150,7 @@
         <v>732</v>
       </c>
       <c r="K898" s="2"/>
-      <c r="L898" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L898" s="7"/>
       <c r="M898" s="2" t="s">
         <v>160</v>
       </c>
@@ -50466,9 +50204,7 @@
         <v>732</v>
       </c>
       <c r="K899" s="2"/>
-      <c r="L899" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L899" s="7"/>
       <c r="M899" s="2" t="s">
         <v>160</v>
       </c>
@@ -50495,46 +50231,44 @@
       <c r="V899" s="2"/>
     </row>
     <row r="900" spans="1:22">
-      <c r="A900" s="2" t="s">
+      <c r="A900" s="5" t="s">
         <v>2106</v>
       </c>
-      <c r="B900" s="2" t="s">
+      <c r="B900" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C900" s="2" t="s">
+      <c r="C900" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D900" s="2"/>
-      <c r="E900" s="2"/>
-      <c r="F900" s="2"/>
-      <c r="G900" s="2"/>
-      <c r="H900" s="2"/>
-      <c r="I900" s="2"/>
-      <c r="J900" s="2" t="s">
+      <c r="D900" s="5"/>
+      <c r="E900" s="5"/>
+      <c r="F900" s="5"/>
+      <c r="G900" s="5"/>
+      <c r="H900" s="5"/>
+      <c r="I900" s="5"/>
+      <c r="J900" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="K900" s="2" t="s">
+      <c r="K900" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="L900" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M900" s="2" t="s">
+      <c r="L900" s="7"/>
+      <c r="M900" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N900" s="2" t="s">
+      <c r="N900" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O900" s="2"/>
-      <c r="P900" s="2"/>
-      <c r="Q900" s="2"/>
-      <c r="R900" s="2"/>
-      <c r="S900" s="2"/>
-      <c r="T900" s="2"/>
-      <c r="U900" s="2" t="s">
+      <c r="O900" s="5"/>
+      <c r="P900" s="5"/>
+      <c r="Q900" s="5"/>
+      <c r="R900" s="5"/>
+      <c r="S900" s="5"/>
+      <c r="T900" s="5"/>
+      <c r="U900" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="V900" s="2" t="s">
+      <c r="V900" s="5" t="s">
         <v>948</v>
       </c>
     </row>
@@ -50801,44 +50535,42 @@
       <c r="V905" s="2"/>
     </row>
     <row r="906" spans="1:22">
-      <c r="A906" s="2" t="s">
+      <c r="A906" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="B906" s="2" t="s">
+      <c r="B906" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C906" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D906" s="2"/>
-      <c r="E906" s="2"/>
-      <c r="F906" s="2"/>
-      <c r="G906" s="2"/>
-      <c r="H906" s="2"/>
-      <c r="I906" s="2"/>
-      <c r="J906" s="2" t="s">
+      <c r="C906" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D906" s="5"/>
+      <c r="E906" s="5"/>
+      <c r="F906" s="5"/>
+      <c r="G906" s="5"/>
+      <c r="H906" s="5"/>
+      <c r="I906" s="5"/>
+      <c r="J906" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K906" s="2"/>
-      <c r="L906" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M906" s="2" t="s">
+      <c r="K906" s="5"/>
+      <c r="L906" s="7"/>
+      <c r="M906" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N906" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O906" s="2"/>
-      <c r="P906" s="2"/>
-      <c r="Q906" s="2"/>
-      <c r="R906" s="2"/>
-      <c r="S906" s="2"/>
-      <c r="T906" s="2"/>
-      <c r="U906" s="2" t="s">
+      <c r="N906" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O906" s="5"/>
+      <c r="P906" s="5"/>
+      <c r="Q906" s="5"/>
+      <c r="R906" s="5"/>
+      <c r="S906" s="5"/>
+      <c r="T906" s="5"/>
+      <c r="U906" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V906" s="2"/>
+      <c r="V906" s="5"/>
     </row>
     <row r="907" spans="1:22">
       <c r="A907" s="2" t="s">
@@ -51234,9 +50966,7 @@
         <v>732</v>
       </c>
       <c r="K914" s="2"/>
-      <c r="L914" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L914" s="7"/>
       <c r="M914" s="2" t="s">
         <v>163</v>
       </c>
@@ -51263,46 +50993,44 @@
       <c r="V914" s="2"/>
     </row>
     <row r="915" spans="1:22">
-      <c r="A915" s="2" t="s">
+      <c r="A915" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="B915" s="2" t="s">
+      <c r="B915" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C915" s="2" t="s">
+      <c r="C915" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D915" s="2"/>
-      <c r="E915" s="2"/>
-      <c r="F915" s="2"/>
-      <c r="G915" s="2"/>
-      <c r="H915" s="2"/>
-      <c r="I915" s="2"/>
-      <c r="J915" s="2" t="s">
+      <c r="D915" s="5"/>
+      <c r="E915" s="5"/>
+      <c r="F915" s="5"/>
+      <c r="G915" s="5"/>
+      <c r="H915" s="5"/>
+      <c r="I915" s="5"/>
+      <c r="J915" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="K915" s="2" t="s">
+      <c r="K915" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="L915" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M915" s="2" t="s">
+      <c r="L915" s="7"/>
+      <c r="M915" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N915" s="2" t="s">
+      <c r="N915" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O915" s="2"/>
-      <c r="P915" s="2"/>
-      <c r="Q915" s="2"/>
-      <c r="R915" s="2"/>
-      <c r="S915" s="2"/>
-      <c r="T915" s="2"/>
-      <c r="U915" s="2" t="s">
+      <c r="O915" s="5"/>
+      <c r="P915" s="5"/>
+      <c r="Q915" s="5"/>
+      <c r="R915" s="5"/>
+      <c r="S915" s="5"/>
+      <c r="T915" s="5"/>
+      <c r="U915" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="V915" s="2" t="s">
+      <c r="V915" s="5" t="s">
         <v>948</v>
       </c>
     </row>
@@ -51430,9 +51158,7 @@
         <v>731</v>
       </c>
       <c r="K918" s="2"/>
-      <c r="L918" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L918" s="7"/>
       <c r="M918" s="2" t="s">
         <v>164</v>
       </c>
@@ -51717,46 +51443,44 @@
       </c>
     </row>
     <row r="924" spans="1:22">
-      <c r="A924" s="2" t="s">
+      <c r="A924" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="B924" s="2" t="s">
+      <c r="B924" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C924" s="2" t="s">
+      <c r="C924" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D924" s="2"/>
-      <c r="E924" s="2"/>
-      <c r="F924" s="2"/>
-      <c r="G924" s="2"/>
-      <c r="H924" s="2"/>
-      <c r="I924" s="2"/>
-      <c r="J924" s="2" t="s">
+      <c r="D924" s="5"/>
+      <c r="E924" s="5"/>
+      <c r="F924" s="5"/>
+      <c r="G924" s="5"/>
+      <c r="H924" s="5"/>
+      <c r="I924" s="5"/>
+      <c r="J924" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="K924" s="2" t="s">
+      <c r="K924" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="L924" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M924" s="2" t="s">
+      <c r="L924" s="7"/>
+      <c r="M924" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N924" s="2" t="s">
+      <c r="N924" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O924" s="2"/>
-      <c r="P924" s="2"/>
-      <c r="Q924" s="2"/>
-      <c r="R924" s="2"/>
-      <c r="S924" s="2"/>
-      <c r="T924" s="2"/>
-      <c r="U924" s="2" t="s">
+      <c r="O924" s="5"/>
+      <c r="P924" s="5"/>
+      <c r="Q924" s="5"/>
+      <c r="R924" s="5"/>
+      <c r="S924" s="5"/>
+      <c r="T924" s="5"/>
+      <c r="U924" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="V924" s="2" t="s">
+      <c r="V924" s="5" t="s">
         <v>953</v>
       </c>
     </row>
@@ -52185,44 +51909,42 @@
       </c>
     </row>
     <row r="933" spans="1:22">
-      <c r="A933" s="2" t="s">
+      <c r="A933" s="5" t="s">
         <v>2139</v>
       </c>
-      <c r="B933" s="2" t="s">
+      <c r="B933" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C933" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D933" s="2"/>
-      <c r="E933" s="2"/>
-      <c r="F933" s="2"/>
-      <c r="G933" s="2"/>
-      <c r="H933" s="2"/>
-      <c r="I933" s="2"/>
-      <c r="J933" s="2" t="s">
+      <c r="C933" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D933" s="5"/>
+      <c r="E933" s="5"/>
+      <c r="F933" s="5"/>
+      <c r="G933" s="5"/>
+      <c r="H933" s="5"/>
+      <c r="I933" s="5"/>
+      <c r="J933" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K933" s="2"/>
-      <c r="L933" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M933" s="2" t="s">
+      <c r="K933" s="5"/>
+      <c r="L933" s="7"/>
+      <c r="M933" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N933" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O933" s="2"/>
-      <c r="P933" s="2"/>
-      <c r="Q933" s="2"/>
-      <c r="R933" s="2"/>
-      <c r="S933" s="2"/>
-      <c r="T933" s="2"/>
-      <c r="U933" s="2" t="s">
+      <c r="N933" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O933" s="5"/>
+      <c r="P933" s="5"/>
+      <c r="Q933" s="5"/>
+      <c r="R933" s="5"/>
+      <c r="S933" s="5"/>
+      <c r="T933" s="5"/>
+      <c r="U933" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V933" s="2"/>
+      <c r="V933" s="5"/>
     </row>
     <row r="934" spans="1:22">
       <c r="A934" s="2" t="s">
@@ -52491,46 +52213,44 @@
       </c>
     </row>
     <row r="939" spans="1:22">
-      <c r="A939" s="2" t="s">
+      <c r="A939" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="B939" s="2" t="s">
+      <c r="B939" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C939" s="2" t="s">
+      <c r="C939" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D939" s="2"/>
-      <c r="E939" s="2"/>
-      <c r="F939" s="2"/>
-      <c r="G939" s="2"/>
-      <c r="H939" s="2"/>
-      <c r="I939" s="2"/>
-      <c r="J939" s="2" t="s">
+      <c r="D939" s="5"/>
+      <c r="E939" s="5"/>
+      <c r="F939" s="5"/>
+      <c r="G939" s="5"/>
+      <c r="H939" s="5"/>
+      <c r="I939" s="5"/>
+      <c r="J939" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="K939" s="2" t="s">
+      <c r="K939" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="L939" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M939" s="2" t="s">
+      <c r="L939" s="7"/>
+      <c r="M939" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N939" s="2" t="s">
+      <c r="N939" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O939" s="2"/>
-      <c r="P939" s="2"/>
-      <c r="Q939" s="2"/>
-      <c r="R939" s="2"/>
-      <c r="S939" s="2"/>
-      <c r="T939" s="2"/>
-      <c r="U939" s="2" t="s">
+      <c r="O939" s="5"/>
+      <c r="P939" s="5"/>
+      <c r="Q939" s="5"/>
+      <c r="R939" s="5"/>
+      <c r="S939" s="5"/>
+      <c r="T939" s="5"/>
+      <c r="U939" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="V939" s="2" t="s">
+      <c r="V939" s="5" t="s">
         <v>954</v>
       </c>
     </row>
@@ -52801,44 +52521,42 @@
       </c>
     </row>
     <row r="945" spans="1:22">
-      <c r="A945" s="2" t="s">
+      <c r="A945" s="5" t="s">
         <v>2151</v>
       </c>
-      <c r="B945" s="2" t="s">
+      <c r="B945" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C945" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D945" s="2"/>
-      <c r="E945" s="2"/>
-      <c r="F945" s="2"/>
-      <c r="G945" s="2"/>
-      <c r="H945" s="2"/>
-      <c r="I945" s="2"/>
-      <c r="J945" s="2" t="s">
+      <c r="C945" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D945" s="5"/>
+      <c r="E945" s="5"/>
+      <c r="F945" s="5"/>
+      <c r="G945" s="5"/>
+      <c r="H945" s="5"/>
+      <c r="I945" s="5"/>
+      <c r="J945" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K945" s="2"/>
-      <c r="L945" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M945" s="2" t="s">
+      <c r="K945" s="5"/>
+      <c r="L945" s="7"/>
+      <c r="M945" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N945" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O945" s="2"/>
-      <c r="P945" s="2"/>
-      <c r="Q945" s="2"/>
-      <c r="R945" s="2"/>
-      <c r="S945" s="2"/>
-      <c r="T945" s="2"/>
-      <c r="U945" s="2" t="s">
+      <c r="N945" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O945" s="5"/>
+      <c r="P945" s="5"/>
+      <c r="Q945" s="5"/>
+      <c r="R945" s="5"/>
+      <c r="S945" s="5"/>
+      <c r="T945" s="5"/>
+      <c r="U945" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V945" s="2"/>
+      <c r="V945" s="5"/>
     </row>
     <row r="946" spans="1:22">
       <c r="A946" s="2" t="s">
@@ -53032,9 +52750,7 @@
       <c r="K949" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="L949" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L949" s="7"/>
       <c r="M949" s="2" t="s">
         <v>168</v>
       </c>
@@ -53163,46 +52879,44 @@
       <c r="V951" s="2"/>
     </row>
     <row r="952" spans="1:22">
-      <c r="A952" s="2" t="s">
+      <c r="A952" s="5" t="s">
         <v>2158</v>
       </c>
-      <c r="B952" s="2" t="s">
+      <c r="B952" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C952" s="2" t="s">
+      <c r="C952" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D952" s="2"/>
-      <c r="E952" s="2"/>
-      <c r="F952" s="2"/>
-      <c r="G952" s="2"/>
-      <c r="H952" s="2"/>
-      <c r="I952" s="2"/>
-      <c r="J952" s="2" t="s">
+      <c r="D952" s="5"/>
+      <c r="E952" s="5"/>
+      <c r="F952" s="5"/>
+      <c r="G952" s="5"/>
+      <c r="H952" s="5"/>
+      <c r="I952" s="5"/>
+      <c r="J952" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="K952" s="2" t="s">
+      <c r="K952" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="L952" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M952" s="2" t="s">
+      <c r="L952" s="7"/>
+      <c r="M952" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N952" s="2" t="s">
+      <c r="N952" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O952" s="2"/>
-      <c r="P952" s="2"/>
-      <c r="Q952" s="2"/>
-      <c r="R952" s="2"/>
-      <c r="S952" s="2"/>
-      <c r="T952" s="2"/>
-      <c r="U952" s="2" t="s">
+      <c r="O952" s="5"/>
+      <c r="P952" s="5"/>
+      <c r="Q952" s="5"/>
+      <c r="R952" s="5"/>
+      <c r="S952" s="5"/>
+      <c r="T952" s="5"/>
+      <c r="U952" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="V952" s="2" t="s">
+      <c r="V952" s="5" t="s">
         <v>956</v>
       </c>
     </row>
@@ -53473,44 +53187,42 @@
       </c>
     </row>
     <row r="958" spans="1:22">
-      <c r="A958" s="2" t="s">
+      <c r="A958" s="5" t="s">
         <v>2164</v>
       </c>
-      <c r="B958" s="2" t="s">
+      <c r="B958" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C958" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D958" s="2"/>
-      <c r="E958" s="2"/>
-      <c r="F958" s="2"/>
-      <c r="G958" s="2"/>
-      <c r="H958" s="2"/>
-      <c r="I958" s="2"/>
-      <c r="J958" s="2" t="s">
+      <c r="C958" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D958" s="5"/>
+      <c r="E958" s="5"/>
+      <c r="F958" s="5"/>
+      <c r="G958" s="5"/>
+      <c r="H958" s="5"/>
+      <c r="I958" s="5"/>
+      <c r="J958" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K958" s="2"/>
-      <c r="L958" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M958" s="2" t="s">
+      <c r="K958" s="5"/>
+      <c r="L958" s="7"/>
+      <c r="M958" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N958" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O958" s="2"/>
-      <c r="P958" s="2"/>
-      <c r="Q958" s="2"/>
-      <c r="R958" s="2"/>
-      <c r="S958" s="2"/>
-      <c r="T958" s="2"/>
-      <c r="U958" s="2" t="s">
+      <c r="N958" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O958" s="5"/>
+      <c r="P958" s="5"/>
+      <c r="Q958" s="5"/>
+      <c r="R958" s="5"/>
+      <c r="S958" s="5"/>
+      <c r="T958" s="5"/>
+      <c r="U958" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V958" s="2"/>
+      <c r="V958" s="5"/>
     </row>
     <row r="959" spans="1:22">
       <c r="A959" s="2" t="s">
@@ -53717,44 +53429,42 @@
       <c r="V962" s="2"/>
     </row>
     <row r="963" spans="1:22">
-      <c r="A963" s="2" t="s">
+      <c r="A963" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="B963" s="2" t="s">
+      <c r="B963" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C963" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D963" s="2"/>
-      <c r="E963" s="2"/>
-      <c r="F963" s="2"/>
-      <c r="G963" s="2"/>
-      <c r="H963" s="2"/>
-      <c r="I963" s="2"/>
-      <c r="J963" s="2" t="s">
+      <c r="C963" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D963" s="5"/>
+      <c r="E963" s="5"/>
+      <c r="F963" s="5"/>
+      <c r="G963" s="5"/>
+      <c r="H963" s="5"/>
+      <c r="I963" s="5"/>
+      <c r="J963" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K963" s="2"/>
-      <c r="L963" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M963" s="2" t="s">
+      <c r="K963" s="5"/>
+      <c r="L963" s="7"/>
+      <c r="M963" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N963" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O963" s="2"/>
-      <c r="P963" s="2"/>
-      <c r="Q963" s="2"/>
-      <c r="R963" s="2"/>
-      <c r="S963" s="2"/>
-      <c r="T963" s="2"/>
-      <c r="U963" s="2" t="s">
+      <c r="N963" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O963" s="5"/>
+      <c r="P963" s="5"/>
+      <c r="Q963" s="5"/>
+      <c r="R963" s="5"/>
+      <c r="S963" s="5"/>
+      <c r="T963" s="5"/>
+      <c r="U963" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V963" s="2"/>
+      <c r="V963" s="5"/>
     </row>
     <row r="964" spans="1:22">
       <c r="A964" s="2" t="s">
@@ -53946,9 +53656,7 @@
         <v>732</v>
       </c>
       <c r="K967" s="2"/>
-      <c r="L967" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L967" s="7"/>
       <c r="M967" s="2" t="s">
         <v>168</v>
       </c>
@@ -54075,44 +53783,42 @@
       <c r="V969" s="2"/>
     </row>
     <row r="970" spans="1:22">
-      <c r="A970" s="2" t="s">
+      <c r="A970" s="5" t="s">
         <v>2176</v>
       </c>
-      <c r="B970" s="2" t="s">
+      <c r="B970" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C970" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D970" s="2"/>
-      <c r="E970" s="2"/>
-      <c r="F970" s="2"/>
-      <c r="G970" s="2"/>
-      <c r="H970" s="2"/>
-      <c r="I970" s="2"/>
-      <c r="J970" s="2" t="s">
+      <c r="C970" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D970" s="5"/>
+      <c r="E970" s="5"/>
+      <c r="F970" s="5"/>
+      <c r="G970" s="5"/>
+      <c r="H970" s="5"/>
+      <c r="I970" s="5"/>
+      <c r="J970" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K970" s="2"/>
-      <c r="L970" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M970" s="2" t="s">
+      <c r="K970" s="5"/>
+      <c r="L970" s="7"/>
+      <c r="M970" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N970" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O970" s="2"/>
-      <c r="P970" s="2"/>
-      <c r="Q970" s="2"/>
-      <c r="R970" s="2"/>
-      <c r="S970" s="2"/>
-      <c r="T970" s="2"/>
-      <c r="U970" s="2" t="s">
+      <c r="N970" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O970" s="5"/>
+      <c r="P970" s="5"/>
+      <c r="Q970" s="5"/>
+      <c r="R970" s="5"/>
+      <c r="S970" s="5"/>
+      <c r="T970" s="5"/>
+      <c r="U970" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V970" s="2"/>
+      <c r="V970" s="5"/>
     </row>
     <row r="971" spans="1:22">
       <c r="A971" s="2" t="s">
@@ -54246,9 +53952,7 @@
         <v>732</v>
       </c>
       <c r="K973" s="2"/>
-      <c r="L973" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L973" s="7"/>
       <c r="M973" s="2" t="s">
         <v>171</v>
       </c>
@@ -54472,9 +54176,7 @@
         <v>732</v>
       </c>
       <c r="K977" s="2"/>
-      <c r="L977" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L977" s="7"/>
       <c r="M977" s="2" t="s">
         <v>171</v>
       </c>
@@ -54501,46 +54203,44 @@
       <c r="V977" s="2"/>
     </row>
     <row r="978" spans="1:22">
-      <c r="A978" s="2" t="s">
+      <c r="A978" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="B978" s="2" t="s">
+      <c r="B978" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C978" s="2" t="s">
+      <c r="C978" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D978" s="2"/>
-      <c r="E978" s="2"/>
-      <c r="F978" s="2"/>
-      <c r="G978" s="2"/>
-      <c r="H978" s="2"/>
-      <c r="I978" s="2"/>
-      <c r="J978" s="2" t="s">
+      <c r="D978" s="5"/>
+      <c r="E978" s="5"/>
+      <c r="F978" s="5"/>
+      <c r="G978" s="5"/>
+      <c r="H978" s="5"/>
+      <c r="I978" s="5"/>
+      <c r="J978" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="K978" s="2" t="s">
+      <c r="K978" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="L978" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M978" s="2" t="s">
+      <c r="L978" s="7"/>
+      <c r="M978" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N978" s="2" t="s">
+      <c r="N978" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2" t="s">
+      <c r="O978" s="5"/>
+      <c r="P978" s="5"/>
+      <c r="Q978" s="5"/>
+      <c r="R978" s="5"/>
+      <c r="S978" s="5"/>
+      <c r="T978" s="5"/>
+      <c r="U978" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="V978" s="2" t="s">
+      <c r="V978" s="5" t="s">
         <v>958</v>
       </c>
     </row>
@@ -54788,9 +54488,7 @@
         <v>732</v>
       </c>
       <c r="K983" s="2"/>
-      <c r="L983" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L983" s="7"/>
       <c r="M983" s="2" t="s">
         <v>172</v>
       </c>
@@ -54979,46 +54677,44 @@
       </c>
     </row>
     <row r="987" spans="1:22">
-      <c r="A987" s="2" t="s">
+      <c r="A987" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="B987" s="2" t="s">
+      <c r="B987" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C987" s="2" t="s">
+      <c r="C987" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D987" s="2"/>
-      <c r="E987" s="2"/>
-      <c r="F987" s="2"/>
-      <c r="G987" s="2"/>
-      <c r="H987" s="2"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="2" t="s">
+      <c r="D987" s="5"/>
+      <c r="E987" s="5"/>
+      <c r="F987" s="5"/>
+      <c r="G987" s="5"/>
+      <c r="H987" s="5"/>
+      <c r="I987" s="5"/>
+      <c r="J987" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="K987" s="2" t="s">
+      <c r="K987" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="L987" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M987" s="2" t="s">
+      <c r="L987" s="7"/>
+      <c r="M987" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N987" s="2" t="s">
+      <c r="N987" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O987" s="2"/>
-      <c r="P987" s="2"/>
-      <c r="Q987" s="2"/>
-      <c r="R987" s="2"/>
-      <c r="S987" s="2"/>
-      <c r="T987" s="2"/>
-      <c r="U987" s="2" t="s">
+      <c r="O987" s="5"/>
+      <c r="P987" s="5"/>
+      <c r="Q987" s="5"/>
+      <c r="R987" s="5"/>
+      <c r="S987" s="5"/>
+      <c r="T987" s="5"/>
+      <c r="U987" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="V987" s="2" t="s">
+      <c r="V987" s="5" t="s">
         <v>959</v>
       </c>
     </row>
@@ -55266,9 +54962,7 @@
         <v>732</v>
       </c>
       <c r="K992" s="2"/>
-      <c r="L992" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L992" s="7"/>
       <c r="M992" s="2" t="s">
         <v>173</v>
       </c>
@@ -55677,44 +55371,42 @@
       </c>
     </row>
     <row r="1000" spans="1:22">
-      <c r="A1000" s="2" t="s">
+      <c r="A1000" s="5" t="s">
         <v>2206</v>
       </c>
-      <c r="B1000" s="2" t="s">
+      <c r="B1000" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C1000" s="2" t="s">
+      <c r="C1000" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2" t="s">
+      <c r="D1000" s="5"/>
+      <c r="E1000" s="5"/>
+      <c r="F1000" s="5"/>
+      <c r="G1000" s="5"/>
+      <c r="H1000" s="5"/>
+      <c r="I1000" s="5"/>
+      <c r="J1000" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1000" s="2" t="s">
+      <c r="K1000" s="5"/>
+      <c r="L1000" s="7"/>
+      <c r="M1000" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N1000" s="2" t="s">
+      <c r="N1000" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2" t="s">
+      <c r="O1000" s="5"/>
+      <c r="P1000" s="5"/>
+      <c r="Q1000" s="5"/>
+      <c r="R1000" s="5"/>
+      <c r="S1000" s="5"/>
+      <c r="T1000" s="5"/>
+      <c r="U1000" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="V1000" s="2"/>
+      <c r="V1000" s="5"/>
     </row>
     <row r="1001" spans="1:22">
       <c r="A1001" s="2" t="s">
@@ -55960,9 +55652,7 @@
         <v>732</v>
       </c>
       <c r="K1005" s="2"/>
-      <c r="L1005" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L1005" s="7"/>
       <c r="M1005" s="2" t="s">
         <v>174</v>
       </c>
@@ -56151,44 +55841,42 @@
       </c>
     </row>
     <row r="1009" spans="1:22">
-      <c r="A1009" s="2" t="s">
+      <c r="A1009" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="B1009" s="2" t="s">
+      <c r="B1009" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C1009" s="2" t="s">
+      <c r="C1009" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-      <c r="G1009" s="2"/>
-      <c r="H1009" s="2"/>
-      <c r="I1009" s="2"/>
-      <c r="J1009" s="2" t="s">
+      <c r="D1009" s="5"/>
+      <c r="E1009" s="5"/>
+      <c r="F1009" s="5"/>
+      <c r="G1009" s="5"/>
+      <c r="H1009" s="5"/>
+      <c r="I1009" s="5"/>
+      <c r="J1009" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="K1009" s="2"/>
-      <c r="L1009" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1009" s="2" t="s">
+      <c r="K1009" s="5"/>
+      <c r="L1009" s="7"/>
+      <c r="M1009" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N1009" s="2" t="s">
+      <c r="N1009" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O1009" s="2"/>
-      <c r="P1009" s="2"/>
-      <c r="Q1009" s="2"/>
-      <c r="R1009" s="2"/>
-      <c r="S1009" s="2"/>
-      <c r="T1009" s="2"/>
-      <c r="U1009" s="2" t="s">
+      <c r="O1009" s="5"/>
+      <c r="P1009" s="5"/>
+      <c r="Q1009" s="5"/>
+      <c r="R1009" s="5"/>
+      <c r="S1009" s="5"/>
+      <c r="T1009" s="5"/>
+      <c r="U1009" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="V1009" s="2"/>
+      <c r="V1009" s="5"/>
     </row>
     <row r="1010" spans="1:22">
       <c r="A1010" s="2" t="s">
@@ -56434,9 +56122,7 @@
         <v>732</v>
       </c>
       <c r="K1014" s="2"/>
-      <c r="L1014" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L1014" s="7"/>
       <c r="M1014" s="2" t="s">
         <v>175</v>
       </c>
@@ -56845,44 +56531,42 @@
       </c>
     </row>
     <row r="1022" spans="1:22">
-      <c r="A1022" s="2" t="s">
+      <c r="A1022" s="5" t="s">
         <v>2226</v>
       </c>
-      <c r="B1022" s="2" t="s">
+      <c r="B1022" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C1022" s="2" t="s">
+      <c r="C1022" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1022" s="2"/>
-      <c r="E1022" s="2"/>
-      <c r="F1022" s="2"/>
-      <c r="G1022" s="2"/>
-      <c r="H1022" s="2"/>
-      <c r="I1022" s="2"/>
-      <c r="J1022" s="2" t="s">
+      <c r="D1022" s="5"/>
+      <c r="E1022" s="5"/>
+      <c r="F1022" s="5"/>
+      <c r="G1022" s="5"/>
+      <c r="H1022" s="5"/>
+      <c r="I1022" s="5"/>
+      <c r="J1022" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="K1022" s="2"/>
-      <c r="L1022" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1022" s="2" t="s">
+      <c r="K1022" s="5"/>
+      <c r="L1022" s="7"/>
+      <c r="M1022" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N1022" s="2" t="s">
+      <c r="N1022" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O1022" s="2"/>
-      <c r="P1022" s="2"/>
-      <c r="Q1022" s="2"/>
-      <c r="R1022" s="2"/>
-      <c r="S1022" s="2"/>
-      <c r="T1022" s="2"/>
-      <c r="U1022" s="2" t="s">
+      <c r="O1022" s="5"/>
+      <c r="P1022" s="5"/>
+      <c r="Q1022" s="5"/>
+      <c r="R1022" s="5"/>
+      <c r="S1022" s="5"/>
+      <c r="T1022" s="5"/>
+      <c r="U1022" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="V1022" s="2"/>
+      <c r="V1022" s="5"/>
     </row>
     <row r="1023" spans="1:22">
       <c r="A1023" s="2" t="s">
@@ -57128,9 +56812,7 @@
         <v>732</v>
       </c>
       <c r="K1027" s="2"/>
-      <c r="L1027" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L1027" s="7"/>
       <c r="M1027" s="2" t="s">
         <v>176</v>
       </c>
@@ -57377,44 +57059,42 @@
       <c r="V1031" s="2"/>
     </row>
     <row r="1032" spans="1:22">
-      <c r="A1032" s="2" t="s">
+      <c r="A1032" s="5" t="s">
         <v>2236</v>
       </c>
-      <c r="B1032" s="2" t="s">
+      <c r="B1032" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C1032" s="2" t="s">
+      <c r="C1032" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1032" s="2"/>
-      <c r="E1032" s="2"/>
-      <c r="F1032" s="2"/>
-      <c r="G1032" s="2"/>
-      <c r="H1032" s="2"/>
-      <c r="I1032" s="2"/>
-      <c r="J1032" s="2" t="s">
+      <c r="D1032" s="5"/>
+      <c r="E1032" s="5"/>
+      <c r="F1032" s="5"/>
+      <c r="G1032" s="5"/>
+      <c r="H1032" s="5"/>
+      <c r="I1032" s="5"/>
+      <c r="J1032" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="K1032" s="2"/>
-      <c r="L1032" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1032" s="2" t="s">
+      <c r="K1032" s="5"/>
+      <c r="L1032" s="7"/>
+      <c r="M1032" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N1032" s="2" t="s">
+      <c r="N1032" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O1032" s="2"/>
-      <c r="P1032" s="2"/>
-      <c r="Q1032" s="2"/>
-      <c r="R1032" s="2"/>
-      <c r="S1032" s="2"/>
-      <c r="T1032" s="2"/>
-      <c r="U1032" s="2" t="s">
+      <c r="O1032" s="5"/>
+      <c r="P1032" s="5"/>
+      <c r="Q1032" s="5"/>
+      <c r="R1032" s="5"/>
+      <c r="S1032" s="5"/>
+      <c r="T1032" s="5"/>
+      <c r="U1032" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="V1032" s="2"/>
+      <c r="V1032" s="5"/>
     </row>
     <row r="1033" spans="1:22">
       <c r="A1033" s="2" t="s">
@@ -57660,9 +57340,7 @@
         <v>732</v>
       </c>
       <c r="K1037" s="2"/>
-      <c r="L1037" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L1037" s="7"/>
       <c r="M1037" s="2" t="s">
         <v>177</v>
       </c>
@@ -57909,44 +57587,42 @@
       <c r="V1041" s="2"/>
     </row>
     <row r="1042" spans="1:22">
-      <c r="A1042" s="2" t="s">
+      <c r="A1042" s="5" t="s">
         <v>2246</v>
       </c>
-      <c r="B1042" s="2" t="s">
+      <c r="B1042" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C1042" s="2" t="s">
+      <c r="C1042" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1042" s="2"/>
-      <c r="E1042" s="2"/>
-      <c r="F1042" s="2"/>
-      <c r="G1042" s="2"/>
-      <c r="H1042" s="2"/>
-      <c r="I1042" s="2"/>
-      <c r="J1042" s="2" t="s">
+      <c r="D1042" s="5"/>
+      <c r="E1042" s="5"/>
+      <c r="F1042" s="5"/>
+      <c r="G1042" s="5"/>
+      <c r="H1042" s="5"/>
+      <c r="I1042" s="5"/>
+      <c r="J1042" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="K1042" s="2"/>
-      <c r="L1042" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1042" s="2" t="s">
+      <c r="K1042" s="5"/>
+      <c r="L1042" s="7"/>
+      <c r="M1042" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N1042" s="2" t="s">
+      <c r="N1042" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O1042" s="2"/>
-      <c r="P1042" s="2"/>
-      <c r="Q1042" s="2"/>
-      <c r="R1042" s="2"/>
-      <c r="S1042" s="2"/>
-      <c r="T1042" s="2"/>
-      <c r="U1042" s="2" t="s">
+      <c r="O1042" s="5"/>
+      <c r="P1042" s="5"/>
+      <c r="Q1042" s="5"/>
+      <c r="R1042" s="5"/>
+      <c r="S1042" s="5"/>
+      <c r="T1042" s="5"/>
+      <c r="U1042" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="V1042" s="2"/>
+      <c r="V1042" s="5"/>
     </row>
     <row r="1043" spans="1:22">
       <c r="A1043" s="2" t="s">
@@ -58327,46 +58003,44 @@
       <c r="V1049" s="2"/>
     </row>
     <row r="1050" spans="1:22">
-      <c r="A1050" s="2" t="s">
+      <c r="A1050" s="5" t="s">
         <v>2254</v>
       </c>
-      <c r="B1050" s="2" t="s">
+      <c r="B1050" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C1050" s="2" t="s">
+      <c r="C1050" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1050" s="2"/>
-      <c r="E1050" s="2"/>
-      <c r="F1050" s="2"/>
-      <c r="G1050" s="2"/>
-      <c r="H1050" s="2"/>
-      <c r="I1050" s="2"/>
-      <c r="J1050" s="2" t="s">
+      <c r="D1050" s="5"/>
+      <c r="E1050" s="5"/>
+      <c r="F1050" s="5"/>
+      <c r="G1050" s="5"/>
+      <c r="H1050" s="5"/>
+      <c r="I1050" s="5"/>
+      <c r="J1050" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="K1050" s="2" t="s">
+      <c r="K1050" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="L1050" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="M1050" s="2" t="s">
+      <c r="L1050" s="7"/>
+      <c r="M1050" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N1050" s="2" t="s">
+      <c r="N1050" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="O1050" s="2"/>
-      <c r="P1050" s="2"/>
-      <c r="Q1050" s="2"/>
-      <c r="R1050" s="2"/>
-      <c r="S1050" s="2"/>
-      <c r="T1050" s="2"/>
-      <c r="U1050" s="2" t="s">
+      <c r="O1050" s="5"/>
+      <c r="P1050" s="5"/>
+      <c r="Q1050" s="5"/>
+      <c r="R1050" s="5"/>
+      <c r="S1050" s="5"/>
+      <c r="T1050" s="5"/>
+      <c r="U1050" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="V1050" s="2" t="s">
+      <c r="V1050" s="5" t="s">
         <v>962</v>
       </c>
     </row>
@@ -58614,9 +58288,7 @@
         <v>732</v>
       </c>
       <c r="K1055" s="2"/>
-      <c r="L1055" s="4" t="s">
-        <v>963</v>
-      </c>
+      <c r="L1055" s="7"/>
       <c r="M1055" s="2" t="s">
         <v>179</v>
       </c>
